--- a/379c3396e101818329dcb885d3ba785498c1a991/rw.xlsx
+++ b/379c3396e101818329dcb885d3ba785498c1a991/rw.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
   <si>
     <t>Lernrate</t>
   </si>
@@ -128,19 +128,10 @@
     <t>l</t>
   </si>
   <si>
-    <t>(z.B. Fleischpulver)</t>
-  </si>
-  <si>
-    <t>(z.B. Glocke)</t>
-  </si>
-  <si>
     <t>Simulation des RW-Modells</t>
   </si>
   <si>
     <t>Vier CSi, ein US</t>
-  </si>
-  <si>
-    <t>CSi des Durchgangs: 1=vorhanden 0=fehlend</t>
   </si>
   <si>
     <t>Vc</t>
@@ -219,30 +210,6 @@
   </si>
   <si>
     <t>Assoziationsstärken</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">l - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>V</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>total</t>
-    </r>
   </si>
   <si>
     <r>
@@ -397,7 +364,53 @@
     <t>Spalten zur Visualisierung (Kopien):</t>
   </si>
   <si>
-    <t>A+B</t>
+    <t>US Intensität</t>
+  </si>
+  <si>
+    <t>(z.B. Luftstoß)</t>
+  </si>
+  <si>
+    <t>CS Anwesenheit: 1=vorhanden 0=fehlend</t>
+  </si>
+  <si>
+    <t>(z.B. Glocke, Licht, Berührung, Geruch)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">l - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>total</t>
+    </r>
+  </si>
+  <si>
+    <t>AB*</t>
   </si>
 </sst>
 </file>
@@ -405,7 +418,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -461,7 +474,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -476,24 +489,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor rgb="FF57FFA3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFFABAB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -618,11 +637,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -668,46 +705,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF00"/>
+      <color rgb="FF0000FF"/>
+      <color rgb="FF00FF00"/>
+      <color rgb="FF00FFFF"/>
+      <color rgb="FF57FFA3"/>
+      <color rgb="FFFFABAB"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1264,8 +1330,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.1293534433196053"/>
           <c:y val="7.8488372093023256E-2"/>
-          <c:w val="0.66666774633950421"/>
-          <c:h val="0.69476744186046513"/>
+          <c:w val="0.71164194970988537"/>
+          <c:h val="0.7300374701955652"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1288,7 +1354,7 @@
           <c:spPr>
             <a:ln w="12700">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -1298,11 +1364,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0000FF"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="0000FF"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:prstDash val="solid"/>
               </a:ln>
@@ -1341,23 +1407,20 @@
           <c:spPr>
             <a:ln w="12700">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:srgbClr val="00FF00"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="00FF00"/>
               </a:solidFill>
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:srgbClr val="00FF00"/>
                 </a:solidFill>
-                <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
           </c:marker>
@@ -1386,7 +1449,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>A+B</c:v>
+                  <c:v>AB*</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1394,7 +1457,7 @@
           <c:spPr>
             <a:ln w="12700">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -1404,11 +1467,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="00FF00"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="00FF00"/>
+                  <a:srgbClr val="0000FF"/>
                 </a:solidFill>
                 <a:prstDash val="solid"/>
               </a:ln>
@@ -1438,16 +1501,13 @@
               <c:f>Tabelle2!$W$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>(leer)</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="12700">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:srgbClr val="FFFF00"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -1457,11 +1517,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF9900"/>
+                <a:srgbClr val="FFFF00"/>
               </a:solidFill>
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FFCC00"/>
+                  <a:srgbClr val="FFFF00"/>
                 </a:solidFill>
                 <a:prstDash val="solid"/>
               </a:ln>
@@ -1530,8 +1590,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.394693897093709"/>
-              <c:y val="0.875"/>
+              <c:x val="0.39469385869176632"/>
+              <c:y val="0.90635104848969783"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1544,7 +1604,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="3175">
@@ -1573,11 +1633,11 @@
         </c:txPr>
         <c:crossAx val="1"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
+        <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:tickLblSkip val="7"/>
-        <c:tickMarkSkip val="1"/>
+        <c:tickLblSkip val="10"/>
+        <c:tickMarkSkip val="10"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -1587,16 +1647,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="3175">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1667,7 +1717,7 @@
         </c:txPr>
         <c:crossAx val="420291040"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1681,12 +1731,40 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1055" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.86424004080874839"/>
-          <c:y val="0.28458539216712753"/>
+          <c:x val="0.86027825631796695"/>
+          <c:y val="0.30026083798329317"/>
           <c:w val="0.12362054223573411"/>
           <c:h val="0.27470395493910227"/>
         </c:manualLayout>
@@ -1694,7 +1772,9 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="3175">
           <a:solidFill>
@@ -1727,12 +1807,12 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
+      <a:schemeClr val="bg1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="3175">
-      <a:solidFill>
-        <a:srgbClr val="000000"/>
-      </a:solidFill>
+      <a:noFill/>
       <a:prstDash val="solid"/>
     </a:ln>
   </c:spPr>
@@ -1809,7 +1889,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>336550</xdr:colOff>
+      <xdr:colOff>513522</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
@@ -7349,9 +7429,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV126"/>
+  <dimension ref="A1:IV128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7365,12 +7447,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -7387,143 +7469,141 @@
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
       <c r="E22" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="33"/>
+    </row>
+    <row r="23" spans="1:23" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="U23" s="34"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="34"/>
+    </row>
+    <row r="24" spans="1:23" ht="16" x14ac:dyDescent="0.4">
+      <c r="A24" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="K24" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24" t="s">
+      <c r="L24" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="M24" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="N24" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="O24" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="P24" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q24" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-    </row>
-    <row r="23" spans="1:23" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24" t="s">
+      <c r="R24" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
-    </row>
-    <row r="24" spans="1:23" ht="16" x14ac:dyDescent="0.4">
-      <c r="A24" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="21" t="s">
+      <c r="S24" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="T24" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G24" s="21" t="s">
+      <c r="U24" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="H24" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="K24" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="L24" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="M24" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="N24" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="O24" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="P24" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q24" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="R24" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="S24" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="T24" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="U24" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="V24" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="W24" s="23" t="s">
-        <v>25</v>
-      </c>
+      <c r="V24" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="W24" s="40"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -7539,43 +7619,43 @@
         <f>B25*C25</f>
         <v>0.05</v>
       </c>
-      <c r="E25" s="25">
-        <v>1</v>
-      </c>
-      <c r="F25" s="26">
-        <v>1</v>
-      </c>
-      <c r="G25" s="26">
-        <v>0</v>
-      </c>
-      <c r="H25" s="26">
-        <v>0</v>
-      </c>
-      <c r="I25" s="26">
-        <v>0</v>
-      </c>
-      <c r="J25" s="32">
-        <v>0</v>
-      </c>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="27">
+      <c r="E25" s="23">
+        <v>1</v>
+      </c>
+      <c r="F25" s="22">
+        <v>1</v>
+      </c>
+      <c r="G25" s="22">
+        <v>0</v>
+      </c>
+      <c r="H25" s="22">
+        <v>0</v>
+      </c>
+      <c r="I25" s="22">
+        <v>0</v>
+      </c>
+      <c r="J25" s="20">
+        <v>0</v>
+      </c>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="19">
         <f>J25*F25+K25*G25+L25*H25+M25*I25</f>
         <v>0</v>
       </c>
-      <c r="O25" s="27">
+      <c r="O25" s="19">
         <f>E25-N25</f>
         <v>1</v>
       </c>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="30"/>
-      <c r="W25" s="30"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="41"/>
+      <c r="V25" s="41"/>
+      <c r="W25" s="41"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -7594,41 +7674,41 @@
         <f t="shared" ref="D26:D89" si="0">B26*C26</f>
         <v>0.05</v>
       </c>
-      <c r="E26" s="25">
-        <v>1</v>
-      </c>
-      <c r="F26" s="26">
-        <v>1</v>
-      </c>
-      <c r="G26" s="26">
-        <v>0</v>
-      </c>
-      <c r="H26" s="26">
-        <v>0</v>
-      </c>
-      <c r="I26" s="26">
-        <v>0</v>
-      </c>
-      <c r="J26" s="28"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="27">
+      <c r="E26" s="23">
+        <v>1</v>
+      </c>
+      <c r="F26" s="22">
+        <v>1</v>
+      </c>
+      <c r="G26" s="22">
+        <v>0</v>
+      </c>
+      <c r="H26" s="22">
+        <v>0</v>
+      </c>
+      <c r="I26" s="22">
+        <v>0</v>
+      </c>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="19">
         <f t="shared" ref="N26:N89" si="1">J26*F26+K26*G26+L26*H26+M26*I26</f>
         <v>0</v>
       </c>
-      <c r="O26" s="27">
+      <c r="O26" s="19">
         <f t="shared" ref="O26:O89" si="2">E26-N26</f>
         <v>1</v>
       </c>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="30"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="41"/>
+      <c r="V26" s="41"/>
+      <c r="W26" s="41"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -7647,41 +7727,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E27" s="25">
-        <v>1</v>
-      </c>
-      <c r="F27" s="26">
-        <v>1</v>
-      </c>
-      <c r="G27" s="26">
-        <v>0</v>
-      </c>
-      <c r="H27" s="26">
-        <v>0</v>
-      </c>
-      <c r="I27" s="26">
-        <v>0</v>
-      </c>
-      <c r="J27" s="28"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="27">
+      <c r="E27" s="23">
+        <v>1</v>
+      </c>
+      <c r="F27" s="22">
+        <v>1</v>
+      </c>
+      <c r="G27" s="22">
+        <v>0</v>
+      </c>
+      <c r="H27" s="22">
+        <v>0</v>
+      </c>
+      <c r="I27" s="22">
+        <v>0</v>
+      </c>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O27" s="27">
+      <c r="O27" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41"/>
+      <c r="V27" s="41"/>
+      <c r="W27" s="41"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -7700,41 +7780,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E28" s="25">
-        <v>1</v>
-      </c>
-      <c r="F28" s="26">
-        <v>1</v>
-      </c>
-      <c r="G28" s="26">
-        <v>0</v>
-      </c>
-      <c r="H28" s="26">
-        <v>0</v>
-      </c>
-      <c r="I28" s="26">
-        <v>0</v>
-      </c>
-      <c r="J28" s="28"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="27">
+      <c r="E28" s="23">
+        <v>1</v>
+      </c>
+      <c r="F28" s="22">
+        <v>1</v>
+      </c>
+      <c r="G28" s="22">
+        <v>0</v>
+      </c>
+      <c r="H28" s="22">
+        <v>0</v>
+      </c>
+      <c r="I28" s="22">
+        <v>0</v>
+      </c>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O28" s="27">
+      <c r="O28" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="41"/>
+      <c r="U28" s="41"/>
+      <c r="V28" s="41"/>
+      <c r="W28" s="41"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -7753,41 +7833,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E29" s="25">
-        <v>1</v>
-      </c>
-      <c r="F29" s="26">
-        <v>1</v>
-      </c>
-      <c r="G29" s="26">
-        <v>0</v>
-      </c>
-      <c r="H29" s="26">
-        <v>0</v>
-      </c>
-      <c r="I29" s="26">
-        <v>0</v>
-      </c>
-      <c r="J29" s="28"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="27">
+      <c r="E29" s="23">
+        <v>1</v>
+      </c>
+      <c r="F29" s="22">
+        <v>1</v>
+      </c>
+      <c r="G29" s="22">
+        <v>0</v>
+      </c>
+      <c r="H29" s="22">
+        <v>0</v>
+      </c>
+      <c r="I29" s="22">
+        <v>0</v>
+      </c>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O29" s="27">
+      <c r="O29" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="41"/>
+      <c r="U29" s="41"/>
+      <c r="V29" s="41"/>
+      <c r="W29" s="41"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -7806,41 +7886,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E30" s="25">
-        <v>1</v>
-      </c>
-      <c r="F30" s="26">
-        <v>1</v>
-      </c>
-      <c r="G30" s="26">
-        <v>0</v>
-      </c>
-      <c r="H30" s="26">
-        <v>0</v>
-      </c>
-      <c r="I30" s="26">
-        <v>0</v>
-      </c>
-      <c r="J30" s="28"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="27">
+      <c r="E30" s="23">
+        <v>1</v>
+      </c>
+      <c r="F30" s="22">
+        <v>1</v>
+      </c>
+      <c r="G30" s="22">
+        <v>0</v>
+      </c>
+      <c r="H30" s="22">
+        <v>0</v>
+      </c>
+      <c r="I30" s="22">
+        <v>0</v>
+      </c>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O30" s="27">
+      <c r="O30" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="30"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="41"/>
+      <c r="V30" s="41"/>
+      <c r="W30" s="41"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -7859,41 +7939,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E31" s="25">
-        <v>1</v>
-      </c>
-      <c r="F31" s="26">
-        <v>1</v>
-      </c>
-      <c r="G31" s="26">
-        <v>0</v>
-      </c>
-      <c r="H31" s="26">
-        <v>0</v>
-      </c>
-      <c r="I31" s="26">
-        <v>0</v>
-      </c>
-      <c r="J31" s="28"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="27">
+      <c r="E31" s="23">
+        <v>1</v>
+      </c>
+      <c r="F31" s="22">
+        <v>1</v>
+      </c>
+      <c r="G31" s="22">
+        <v>0</v>
+      </c>
+      <c r="H31" s="22">
+        <v>0</v>
+      </c>
+      <c r="I31" s="22">
+        <v>0</v>
+      </c>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O31" s="27">
+      <c r="O31" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="30"/>
-      <c r="U31" s="30"/>
-      <c r="V31" s="30"/>
-      <c r="W31" s="30"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="41"/>
+      <c r="U31" s="41"/>
+      <c r="V31" s="41"/>
+      <c r="W31" s="41"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -7912,41 +7992,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E32" s="25">
-        <v>1</v>
-      </c>
-      <c r="F32" s="26">
-        <v>1</v>
-      </c>
-      <c r="G32" s="26">
-        <v>0</v>
-      </c>
-      <c r="H32" s="26">
-        <v>0</v>
-      </c>
-      <c r="I32" s="26">
-        <v>0</v>
-      </c>
-      <c r="J32" s="28"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="27">
+      <c r="E32" s="23">
+        <v>1</v>
+      </c>
+      <c r="F32" s="22">
+        <v>1</v>
+      </c>
+      <c r="G32" s="22">
+        <v>0</v>
+      </c>
+      <c r="H32" s="22">
+        <v>0</v>
+      </c>
+      <c r="I32" s="22">
+        <v>0</v>
+      </c>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O32" s="27">
+      <c r="O32" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="30"/>
-      <c r="U32" s="30"/>
-      <c r="V32" s="30"/>
-      <c r="W32" s="30"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="41"/>
+      <c r="V32" s="41"/>
+      <c r="W32" s="41"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33">
@@ -7965,41 +8045,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E33" s="25">
-        <v>1</v>
-      </c>
-      <c r="F33" s="26">
-        <v>1</v>
-      </c>
-      <c r="G33" s="26">
-        <v>0</v>
-      </c>
-      <c r="H33" s="26">
-        <v>0</v>
-      </c>
-      <c r="I33" s="26">
-        <v>0</v>
-      </c>
-      <c r="J33" s="28"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="27">
+      <c r="E33" s="23">
+        <v>1</v>
+      </c>
+      <c r="F33" s="22">
+        <v>1</v>
+      </c>
+      <c r="G33" s="22">
+        <v>0</v>
+      </c>
+      <c r="H33" s="22">
+        <v>0</v>
+      </c>
+      <c r="I33" s="22">
+        <v>0</v>
+      </c>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O33" s="27">
+      <c r="O33" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="29"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="30"/>
-      <c r="V33" s="30"/>
-      <c r="W33" s="30"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="41"/>
+      <c r="U33" s="41"/>
+      <c r="V33" s="41"/>
+      <c r="W33" s="41"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -8018,41 +8098,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E34" s="25">
-        <v>1</v>
-      </c>
-      <c r="F34" s="26">
-        <v>1</v>
-      </c>
-      <c r="G34" s="26">
-        <v>0</v>
-      </c>
-      <c r="H34" s="26">
-        <v>0</v>
-      </c>
-      <c r="I34" s="26">
-        <v>0</v>
-      </c>
-      <c r="J34" s="28"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="27">
+      <c r="E34" s="23">
+        <v>1</v>
+      </c>
+      <c r="F34" s="22">
+        <v>1</v>
+      </c>
+      <c r="G34" s="22">
+        <v>0</v>
+      </c>
+      <c r="H34" s="22">
+        <v>0</v>
+      </c>
+      <c r="I34" s="22">
+        <v>0</v>
+      </c>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O34" s="27">
+      <c r="O34" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="29"/>
-      <c r="S34" s="29"/>
-      <c r="T34" s="30"/>
-      <c r="U34" s="30"/>
-      <c r="V34" s="30"/>
-      <c r="W34" s="30"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="41"/>
+      <c r="U34" s="41"/>
+      <c r="V34" s="41"/>
+      <c r="W34" s="41"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -8071,41 +8151,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E35" s="25">
-        <v>1</v>
-      </c>
-      <c r="F35" s="26">
-        <v>1</v>
-      </c>
-      <c r="G35" s="26">
-        <v>0</v>
-      </c>
-      <c r="H35" s="26">
-        <v>0</v>
-      </c>
-      <c r="I35" s="26">
-        <v>0</v>
-      </c>
-      <c r="J35" s="28"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="27">
+      <c r="E35" s="23">
+        <v>1</v>
+      </c>
+      <c r="F35" s="22">
+        <v>1</v>
+      </c>
+      <c r="G35" s="22">
+        <v>0</v>
+      </c>
+      <c r="H35" s="22">
+        <v>0</v>
+      </c>
+      <c r="I35" s="22">
+        <v>0</v>
+      </c>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O35" s="27">
+      <c r="O35" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="29"/>
-      <c r="S35" s="29"/>
-      <c r="T35" s="30"/>
-      <c r="U35" s="30"/>
-      <c r="V35" s="30"/>
-      <c r="W35" s="30"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="32"/>
+      <c r="R35" s="32"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="41"/>
+      <c r="U35" s="41"/>
+      <c r="V35" s="41"/>
+      <c r="W35" s="41"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -8124,41 +8204,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E36" s="25">
-        <v>1</v>
-      </c>
-      <c r="F36" s="26">
-        <v>1</v>
-      </c>
-      <c r="G36" s="26">
-        <v>0</v>
-      </c>
-      <c r="H36" s="26">
-        <v>0</v>
-      </c>
-      <c r="I36" s="26">
-        <v>0</v>
-      </c>
-      <c r="J36" s="28"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="27">
+      <c r="E36" s="23">
+        <v>1</v>
+      </c>
+      <c r="F36" s="22">
+        <v>1</v>
+      </c>
+      <c r="G36" s="22">
+        <v>0</v>
+      </c>
+      <c r="H36" s="22">
+        <v>0</v>
+      </c>
+      <c r="I36" s="22">
+        <v>0</v>
+      </c>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O36" s="27">
+      <c r="O36" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="30"/>
-      <c r="U36" s="30"/>
-      <c r="V36" s="30"/>
-      <c r="W36" s="30"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="41"/>
+      <c r="U36" s="41"/>
+      <c r="V36" s="41"/>
+      <c r="W36" s="41"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -8177,41 +8257,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E37" s="25">
-        <v>1</v>
-      </c>
-      <c r="F37" s="26">
-        <v>1</v>
-      </c>
-      <c r="G37" s="26">
-        <v>0</v>
-      </c>
-      <c r="H37" s="26">
-        <v>0</v>
-      </c>
-      <c r="I37" s="26">
-        <v>0</v>
-      </c>
-      <c r="J37" s="28"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="27">
+      <c r="E37" s="23">
+        <v>1</v>
+      </c>
+      <c r="F37" s="22">
+        <v>1</v>
+      </c>
+      <c r="G37" s="22">
+        <v>0</v>
+      </c>
+      <c r="H37" s="22">
+        <v>0</v>
+      </c>
+      <c r="I37" s="22">
+        <v>0</v>
+      </c>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O37" s="27">
+      <c r="O37" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="29"/>
-      <c r="T37" s="30"/>
-      <c r="U37" s="30"/>
-      <c r="V37" s="30"/>
-      <c r="W37" s="30"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="41"/>
+      <c r="U37" s="41"/>
+      <c r="V37" s="41"/>
+      <c r="W37" s="41"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -8230,41 +8310,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E38" s="25">
-        <v>1</v>
-      </c>
-      <c r="F38" s="26">
-        <v>1</v>
-      </c>
-      <c r="G38" s="26">
-        <v>0</v>
-      </c>
-      <c r="H38" s="26">
-        <v>0</v>
-      </c>
-      <c r="I38" s="26">
-        <v>0</v>
-      </c>
-      <c r="J38" s="28"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="27">
+      <c r="E38" s="23">
+        <v>1</v>
+      </c>
+      <c r="F38" s="22">
+        <v>1</v>
+      </c>
+      <c r="G38" s="22">
+        <v>0</v>
+      </c>
+      <c r="H38" s="22">
+        <v>0</v>
+      </c>
+      <c r="I38" s="22">
+        <v>0</v>
+      </c>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O38" s="27">
+      <c r="O38" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="29"/>
-      <c r="T38" s="30"/>
-      <c r="U38" s="30"/>
-      <c r="V38" s="30"/>
-      <c r="W38" s="30"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="32"/>
+      <c r="S38" s="32"/>
+      <c r="T38" s="41"/>
+      <c r="U38" s="41"/>
+      <c r="V38" s="41"/>
+      <c r="W38" s="41"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -8283,41 +8363,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E39" s="25">
-        <v>1</v>
-      </c>
-      <c r="F39" s="26">
-        <v>1</v>
-      </c>
-      <c r="G39" s="26">
-        <v>0</v>
-      </c>
-      <c r="H39" s="26">
-        <v>0</v>
-      </c>
-      <c r="I39" s="26">
-        <v>0</v>
-      </c>
-      <c r="J39" s="28"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="27">
+      <c r="E39" s="23">
+        <v>1</v>
+      </c>
+      <c r="F39" s="22">
+        <v>1</v>
+      </c>
+      <c r="G39" s="22">
+        <v>0</v>
+      </c>
+      <c r="H39" s="22">
+        <v>0</v>
+      </c>
+      <c r="I39" s="22">
+        <v>0</v>
+      </c>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O39" s="27">
+      <c r="O39" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P39" s="28"/>
-      <c r="Q39" s="29"/>
-      <c r="R39" s="29"/>
-      <c r="S39" s="29"/>
-      <c r="T39" s="30"/>
-      <c r="U39" s="30"/>
-      <c r="V39" s="30"/>
-      <c r="W39" s="30"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="32"/>
+      <c r="R39" s="32"/>
+      <c r="S39" s="32"/>
+      <c r="T39" s="41"/>
+      <c r="U39" s="41"/>
+      <c r="V39" s="41"/>
+      <c r="W39" s="41"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -8336,41 +8416,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E40" s="25">
-        <v>1</v>
-      </c>
-      <c r="F40" s="26">
-        <v>1</v>
-      </c>
-      <c r="G40" s="26">
-        <v>0</v>
-      </c>
-      <c r="H40" s="26">
-        <v>0</v>
-      </c>
-      <c r="I40" s="26">
-        <v>0</v>
-      </c>
-      <c r="J40" s="28"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="27">
+      <c r="E40" s="23">
+        <v>1</v>
+      </c>
+      <c r="F40" s="22">
+        <v>1</v>
+      </c>
+      <c r="G40" s="22">
+        <v>0</v>
+      </c>
+      <c r="H40" s="22">
+        <v>0</v>
+      </c>
+      <c r="I40" s="22">
+        <v>0</v>
+      </c>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O40" s="27">
+      <c r="O40" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P40" s="28"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="29"/>
-      <c r="S40" s="29"/>
-      <c r="T40" s="30"/>
-      <c r="U40" s="30"/>
-      <c r="V40" s="30"/>
-      <c r="W40" s="30"/>
+      <c r="P40" s="32"/>
+      <c r="Q40" s="32"/>
+      <c r="R40" s="32"/>
+      <c r="S40" s="32"/>
+      <c r="T40" s="41"/>
+      <c r="U40" s="41"/>
+      <c r="V40" s="41"/>
+      <c r="W40" s="41"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41">
@@ -8389,41 +8469,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E41" s="25">
-        <v>1</v>
-      </c>
-      <c r="F41" s="26">
-        <v>1</v>
-      </c>
-      <c r="G41" s="26">
-        <v>0</v>
-      </c>
-      <c r="H41" s="26">
-        <v>0</v>
-      </c>
-      <c r="I41" s="26">
-        <v>0</v>
-      </c>
-      <c r="J41" s="28"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="27">
+      <c r="E41" s="23">
+        <v>1</v>
+      </c>
+      <c r="F41" s="22">
+        <v>1</v>
+      </c>
+      <c r="G41" s="22">
+        <v>0</v>
+      </c>
+      <c r="H41" s="22">
+        <v>0</v>
+      </c>
+      <c r="I41" s="22">
+        <v>0</v>
+      </c>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O41" s="27">
+      <c r="O41" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P41" s="28"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="30"/>
-      <c r="U41" s="30"/>
-      <c r="V41" s="30"/>
-      <c r="W41" s="30"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="32"/>
+      <c r="R41" s="32"/>
+      <c r="S41" s="32"/>
+      <c r="T41" s="41"/>
+      <c r="U41" s="41"/>
+      <c r="V41" s="41"/>
+      <c r="W41" s="41"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42">
@@ -8442,41 +8522,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E42" s="25">
-        <v>1</v>
-      </c>
-      <c r="F42" s="26">
-        <v>1</v>
-      </c>
-      <c r="G42" s="26">
-        <v>0</v>
-      </c>
-      <c r="H42" s="26">
-        <v>0</v>
-      </c>
-      <c r="I42" s="26">
-        <v>0</v>
-      </c>
-      <c r="J42" s="28"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="27">
+      <c r="E42" s="23">
+        <v>1</v>
+      </c>
+      <c r="F42" s="22">
+        <v>1</v>
+      </c>
+      <c r="G42" s="22">
+        <v>0</v>
+      </c>
+      <c r="H42" s="22">
+        <v>0</v>
+      </c>
+      <c r="I42" s="22">
+        <v>0</v>
+      </c>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O42" s="27">
+      <c r="O42" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="29"/>
-      <c r="S42" s="29"/>
-      <c r="T42" s="30"/>
-      <c r="U42" s="30"/>
-      <c r="V42" s="30"/>
-      <c r="W42" s="30"/>
+      <c r="P42" s="32"/>
+      <c r="Q42" s="32"/>
+      <c r="R42" s="32"/>
+      <c r="S42" s="32"/>
+      <c r="T42" s="41"/>
+      <c r="U42" s="41"/>
+      <c r="V42" s="41"/>
+      <c r="W42" s="41"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -8495,41 +8575,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E43" s="25">
-        <v>1</v>
-      </c>
-      <c r="F43" s="26">
-        <v>1</v>
-      </c>
-      <c r="G43" s="26">
-        <v>0</v>
-      </c>
-      <c r="H43" s="26">
-        <v>0</v>
-      </c>
-      <c r="I43" s="26">
-        <v>0</v>
-      </c>
-      <c r="J43" s="28"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="27">
+      <c r="E43" s="23">
+        <v>1</v>
+      </c>
+      <c r="F43" s="22">
+        <v>1</v>
+      </c>
+      <c r="G43" s="22">
+        <v>0</v>
+      </c>
+      <c r="H43" s="22">
+        <v>0</v>
+      </c>
+      <c r="I43" s="22">
+        <v>0</v>
+      </c>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="32"/>
+      <c r="N43" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O43" s="27">
+      <c r="O43" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P43" s="28"/>
-      <c r="Q43" s="29"/>
-      <c r="R43" s="29"/>
-      <c r="S43" s="29"/>
-      <c r="T43" s="30"/>
-      <c r="U43" s="30"/>
-      <c r="V43" s="30"/>
-      <c r="W43" s="30"/>
+      <c r="P43" s="32"/>
+      <c r="Q43" s="32"/>
+      <c r="R43" s="32"/>
+      <c r="S43" s="32"/>
+      <c r="T43" s="41"/>
+      <c r="U43" s="41"/>
+      <c r="V43" s="41"/>
+      <c r="W43" s="41"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44">
@@ -8548,41 +8628,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E44" s="25">
-        <v>1</v>
-      </c>
-      <c r="F44" s="26">
-        <v>1</v>
-      </c>
-      <c r="G44" s="26">
-        <v>0</v>
-      </c>
-      <c r="H44" s="26">
-        <v>0</v>
-      </c>
-      <c r="I44" s="26">
-        <v>0</v>
-      </c>
-      <c r="J44" s="28"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="29"/>
-      <c r="N44" s="27">
+      <c r="E44" s="23">
+        <v>1</v>
+      </c>
+      <c r="F44" s="22">
+        <v>1</v>
+      </c>
+      <c r="G44" s="22">
+        <v>0</v>
+      </c>
+      <c r="H44" s="22">
+        <v>0</v>
+      </c>
+      <c r="I44" s="22">
+        <v>0</v>
+      </c>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O44" s="27">
+      <c r="O44" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P44" s="28"/>
-      <c r="Q44" s="29"/>
-      <c r="R44" s="29"/>
-      <c r="S44" s="29"/>
-      <c r="T44" s="30"/>
-      <c r="U44" s="30"/>
-      <c r="V44" s="30"/>
-      <c r="W44" s="30"/>
+      <c r="P44" s="32"/>
+      <c r="Q44" s="32"/>
+      <c r="R44" s="32"/>
+      <c r="S44" s="32"/>
+      <c r="T44" s="41"/>
+      <c r="U44" s="41"/>
+      <c r="V44" s="41"/>
+      <c r="W44" s="41"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -8601,41 +8681,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E45" s="25">
-        <v>1</v>
-      </c>
-      <c r="F45" s="26">
-        <v>1</v>
-      </c>
-      <c r="G45" s="26">
-        <v>0</v>
-      </c>
-      <c r="H45" s="26">
-        <v>0</v>
-      </c>
-      <c r="I45" s="26">
-        <v>0</v>
-      </c>
-      <c r="J45" s="28"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="27">
+      <c r="E45" s="23">
+        <v>1</v>
+      </c>
+      <c r="F45" s="22">
+        <v>1</v>
+      </c>
+      <c r="G45" s="22">
+        <v>0</v>
+      </c>
+      <c r="H45" s="22">
+        <v>0</v>
+      </c>
+      <c r="I45" s="22">
+        <v>0</v>
+      </c>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O45" s="27">
+      <c r="O45" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P45" s="28"/>
-      <c r="Q45" s="29"/>
-      <c r="R45" s="29"/>
-      <c r="S45" s="29"/>
-      <c r="T45" s="30"/>
-      <c r="U45" s="30"/>
-      <c r="V45" s="30"/>
-      <c r="W45" s="30"/>
+      <c r="P45" s="32"/>
+      <c r="Q45" s="32"/>
+      <c r="R45" s="32"/>
+      <c r="S45" s="32"/>
+      <c r="T45" s="41"/>
+      <c r="U45" s="41"/>
+      <c r="V45" s="41"/>
+      <c r="W45" s="41"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46">
@@ -8654,41 +8734,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E46" s="25">
-        <v>1</v>
-      </c>
-      <c r="F46" s="26">
-        <v>1</v>
-      </c>
-      <c r="G46" s="26">
-        <v>0</v>
-      </c>
-      <c r="H46" s="26">
-        <v>0</v>
-      </c>
-      <c r="I46" s="26">
-        <v>0</v>
-      </c>
-      <c r="J46" s="28"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="29"/>
-      <c r="N46" s="27">
+      <c r="E46" s="23">
+        <v>1</v>
+      </c>
+      <c r="F46" s="22">
+        <v>1</v>
+      </c>
+      <c r="G46" s="22">
+        <v>0</v>
+      </c>
+      <c r="H46" s="22">
+        <v>0</v>
+      </c>
+      <c r="I46" s="22">
+        <v>0</v>
+      </c>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="32"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O46" s="27">
+      <c r="O46" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P46" s="28"/>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="29"/>
-      <c r="S46" s="29"/>
-      <c r="T46" s="30"/>
-      <c r="U46" s="30"/>
-      <c r="V46" s="30"/>
-      <c r="W46" s="30"/>
+      <c r="P46" s="32"/>
+      <c r="Q46" s="32"/>
+      <c r="R46" s="32"/>
+      <c r="S46" s="32"/>
+      <c r="T46" s="41"/>
+      <c r="U46" s="41"/>
+      <c r="V46" s="41"/>
+      <c r="W46" s="41"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47">
@@ -8707,41 +8787,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E47" s="25">
-        <v>1</v>
-      </c>
-      <c r="F47" s="26">
-        <v>1</v>
-      </c>
-      <c r="G47" s="26">
-        <v>0</v>
-      </c>
-      <c r="H47" s="26">
-        <v>0</v>
-      </c>
-      <c r="I47" s="26">
-        <v>0</v>
-      </c>
-      <c r="J47" s="28"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="29"/>
-      <c r="N47" s="27">
+      <c r="E47" s="23">
+        <v>1</v>
+      </c>
+      <c r="F47" s="22">
+        <v>1</v>
+      </c>
+      <c r="G47" s="22">
+        <v>0</v>
+      </c>
+      <c r="H47" s="22">
+        <v>0</v>
+      </c>
+      <c r="I47" s="22">
+        <v>0</v>
+      </c>
+      <c r="J47" s="32"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="32"/>
+      <c r="M47" s="32"/>
+      <c r="N47" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O47" s="27">
+      <c r="O47" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P47" s="28"/>
-      <c r="Q47" s="29"/>
-      <c r="R47" s="29"/>
-      <c r="S47" s="29"/>
-      <c r="T47" s="30"/>
-      <c r="U47" s="30"/>
-      <c r="V47" s="30"/>
-      <c r="W47" s="30"/>
+      <c r="P47" s="32"/>
+      <c r="Q47" s="32"/>
+      <c r="R47" s="32"/>
+      <c r="S47" s="32"/>
+      <c r="T47" s="41"/>
+      <c r="U47" s="41"/>
+      <c r="V47" s="41"/>
+      <c r="W47" s="41"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48">
@@ -8760,41 +8840,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E48" s="25">
-        <v>1</v>
-      </c>
-      <c r="F48" s="26">
-        <v>1</v>
-      </c>
-      <c r="G48" s="26">
-        <v>0</v>
-      </c>
-      <c r="H48" s="26">
-        <v>0</v>
-      </c>
-      <c r="I48" s="26">
-        <v>0</v>
-      </c>
-      <c r="J48" s="28"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
-      <c r="N48" s="27">
+      <c r="E48" s="23">
+        <v>1</v>
+      </c>
+      <c r="F48" s="22">
+        <v>1</v>
+      </c>
+      <c r="G48" s="22">
+        <v>0</v>
+      </c>
+      <c r="H48" s="22">
+        <v>0</v>
+      </c>
+      <c r="I48" s="22">
+        <v>0</v>
+      </c>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O48" s="27">
+      <c r="O48" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P48" s="28"/>
-      <c r="Q48" s="29"/>
-      <c r="R48" s="29"/>
-      <c r="S48" s="29"/>
-      <c r="T48" s="30"/>
-      <c r="U48" s="30"/>
-      <c r="V48" s="30"/>
-      <c r="W48" s="30"/>
+      <c r="P48" s="32"/>
+      <c r="Q48" s="32"/>
+      <c r="R48" s="32"/>
+      <c r="S48" s="32"/>
+      <c r="T48" s="41"/>
+      <c r="U48" s="41"/>
+      <c r="V48" s="41"/>
+      <c r="W48" s="41"/>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49">
@@ -8813,41 +8893,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E49" s="25">
-        <v>1</v>
-      </c>
-      <c r="F49" s="26">
-        <v>1</v>
-      </c>
-      <c r="G49" s="26">
-        <v>0</v>
-      </c>
-      <c r="H49" s="26">
-        <v>0</v>
-      </c>
-      <c r="I49" s="26">
-        <v>0</v>
-      </c>
-      <c r="J49" s="28"/>
-      <c r="K49" s="29"/>
-      <c r="L49" s="29"/>
-      <c r="M49" s="29"/>
-      <c r="N49" s="27">
+      <c r="E49" s="23">
+        <v>1</v>
+      </c>
+      <c r="F49" s="22">
+        <v>1</v>
+      </c>
+      <c r="G49" s="22">
+        <v>0</v>
+      </c>
+      <c r="H49" s="22">
+        <v>0</v>
+      </c>
+      <c r="I49" s="22">
+        <v>0</v>
+      </c>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O49" s="27">
+      <c r="O49" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P49" s="28"/>
-      <c r="Q49" s="29"/>
-      <c r="R49" s="29"/>
-      <c r="S49" s="29"/>
-      <c r="T49" s="30"/>
-      <c r="U49" s="30"/>
-      <c r="V49" s="30"/>
-      <c r="W49" s="30"/>
+      <c r="P49" s="32"/>
+      <c r="Q49" s="32"/>
+      <c r="R49" s="32"/>
+      <c r="S49" s="32"/>
+      <c r="T49" s="41"/>
+      <c r="U49" s="41"/>
+      <c r="V49" s="41"/>
+      <c r="W49" s="41"/>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50">
@@ -8866,41 +8946,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E50" s="25">
-        <v>1</v>
-      </c>
-      <c r="F50" s="26">
-        <v>1</v>
-      </c>
-      <c r="G50" s="26">
-        <v>0</v>
-      </c>
-      <c r="H50" s="26">
-        <v>0</v>
-      </c>
-      <c r="I50" s="26">
-        <v>0</v>
-      </c>
-      <c r="J50" s="28"/>
-      <c r="K50" s="29"/>
-      <c r="L50" s="29"/>
-      <c r="M50" s="29"/>
-      <c r="N50" s="27">
+      <c r="E50" s="23">
+        <v>1</v>
+      </c>
+      <c r="F50" s="22">
+        <v>1</v>
+      </c>
+      <c r="G50" s="22">
+        <v>0</v>
+      </c>
+      <c r="H50" s="22">
+        <v>0</v>
+      </c>
+      <c r="I50" s="22">
+        <v>0</v>
+      </c>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O50" s="27">
+      <c r="O50" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P50" s="28"/>
-      <c r="Q50" s="29"/>
-      <c r="R50" s="29"/>
-      <c r="S50" s="29"/>
-      <c r="T50" s="30"/>
-      <c r="U50" s="30"/>
-      <c r="V50" s="30"/>
-      <c r="W50" s="30"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="32"/>
+      <c r="R50" s="32"/>
+      <c r="S50" s="32"/>
+      <c r="T50" s="41"/>
+      <c r="U50" s="41"/>
+      <c r="V50" s="41"/>
+      <c r="W50" s="41"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51">
@@ -8919,41 +8999,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E51" s="25">
-        <v>1</v>
-      </c>
-      <c r="F51" s="26">
-        <v>1</v>
-      </c>
-      <c r="G51" s="26">
-        <v>0</v>
-      </c>
-      <c r="H51" s="26">
-        <v>0</v>
-      </c>
-      <c r="I51" s="26">
-        <v>0</v>
-      </c>
-      <c r="J51" s="28"/>
-      <c r="K51" s="29"/>
-      <c r="L51" s="29"/>
-      <c r="M51" s="29"/>
-      <c r="N51" s="27">
+      <c r="E51" s="23">
+        <v>1</v>
+      </c>
+      <c r="F51" s="22">
+        <v>1</v>
+      </c>
+      <c r="G51" s="22">
+        <v>0</v>
+      </c>
+      <c r="H51" s="22">
+        <v>0</v>
+      </c>
+      <c r="I51" s="22">
+        <v>0</v>
+      </c>
+      <c r="J51" s="32"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="32"/>
+      <c r="M51" s="32"/>
+      <c r="N51" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O51" s="27">
+      <c r="O51" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P51" s="28"/>
-      <c r="Q51" s="29"/>
-      <c r="R51" s="29"/>
-      <c r="S51" s="29"/>
-      <c r="T51" s="30"/>
-      <c r="U51" s="30"/>
-      <c r="V51" s="30"/>
-      <c r="W51" s="30"/>
+      <c r="P51" s="32"/>
+      <c r="Q51" s="32"/>
+      <c r="R51" s="32"/>
+      <c r="S51" s="32"/>
+      <c r="T51" s="41"/>
+      <c r="U51" s="41"/>
+      <c r="V51" s="41"/>
+      <c r="W51" s="41"/>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52">
@@ -8972,41 +9052,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E52" s="25">
-        <v>1</v>
-      </c>
-      <c r="F52" s="26">
-        <v>1</v>
-      </c>
-      <c r="G52" s="26">
-        <v>0</v>
-      </c>
-      <c r="H52" s="26">
-        <v>0</v>
-      </c>
-      <c r="I52" s="26">
-        <v>0</v>
-      </c>
-      <c r="J52" s="28"/>
-      <c r="K52" s="29"/>
-      <c r="L52" s="29"/>
-      <c r="M52" s="29"/>
-      <c r="N52" s="27">
+      <c r="E52" s="23">
+        <v>1</v>
+      </c>
+      <c r="F52" s="22">
+        <v>1</v>
+      </c>
+      <c r="G52" s="22">
+        <v>0</v>
+      </c>
+      <c r="H52" s="22">
+        <v>0</v>
+      </c>
+      <c r="I52" s="22">
+        <v>0</v>
+      </c>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="32"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O52" s="27">
+      <c r="O52" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P52" s="28"/>
-      <c r="Q52" s="29"/>
-      <c r="R52" s="29"/>
-      <c r="S52" s="29"/>
-      <c r="T52" s="30"/>
-      <c r="U52" s="30"/>
-      <c r="V52" s="30"/>
-      <c r="W52" s="30"/>
+      <c r="P52" s="32"/>
+      <c r="Q52" s="32"/>
+      <c r="R52" s="32"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="41"/>
+      <c r="U52" s="41"/>
+      <c r="V52" s="41"/>
+      <c r="W52" s="41"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53">
@@ -9025,41 +9105,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E53" s="25">
-        <v>1</v>
-      </c>
-      <c r="F53" s="26">
-        <v>1</v>
-      </c>
-      <c r="G53" s="26">
-        <v>0</v>
-      </c>
-      <c r="H53" s="26">
-        <v>0</v>
-      </c>
-      <c r="I53" s="26">
-        <v>0</v>
-      </c>
-      <c r="J53" s="28"/>
-      <c r="K53" s="29"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="29"/>
-      <c r="N53" s="27">
+      <c r="E53" s="23">
+        <v>1</v>
+      </c>
+      <c r="F53" s="22">
+        <v>1</v>
+      </c>
+      <c r="G53" s="22">
+        <v>0</v>
+      </c>
+      <c r="H53" s="22">
+        <v>0</v>
+      </c>
+      <c r="I53" s="22">
+        <v>0</v>
+      </c>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="32"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O53" s="27">
+      <c r="O53" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P53" s="28"/>
-      <c r="Q53" s="29"/>
-      <c r="R53" s="29"/>
-      <c r="S53" s="29"/>
-      <c r="T53" s="30"/>
-      <c r="U53" s="30"/>
-      <c r="V53" s="30"/>
-      <c r="W53" s="30"/>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="32"/>
+      <c r="R53" s="32"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="41"/>
+      <c r="U53" s="41"/>
+      <c r="V53" s="41"/>
+      <c r="W53" s="41"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54">
@@ -9078,41 +9158,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E54" s="25">
-        <v>1</v>
-      </c>
-      <c r="F54" s="26">
-        <v>1</v>
-      </c>
-      <c r="G54" s="26">
-        <v>0</v>
-      </c>
-      <c r="H54" s="26">
-        <v>0</v>
-      </c>
-      <c r="I54" s="26">
-        <v>0</v>
-      </c>
-      <c r="J54" s="28"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="29"/>
-      <c r="M54" s="29"/>
-      <c r="N54" s="27">
+      <c r="E54" s="23">
+        <v>1</v>
+      </c>
+      <c r="F54" s="22">
+        <v>1</v>
+      </c>
+      <c r="G54" s="22">
+        <v>0</v>
+      </c>
+      <c r="H54" s="22">
+        <v>0</v>
+      </c>
+      <c r="I54" s="22">
+        <v>0</v>
+      </c>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="32"/>
+      <c r="M54" s="32"/>
+      <c r="N54" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O54" s="27">
+      <c r="O54" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P54" s="28"/>
-      <c r="Q54" s="29"/>
-      <c r="R54" s="29"/>
-      <c r="S54" s="29"/>
-      <c r="T54" s="30"/>
-      <c r="U54" s="30"/>
-      <c r="V54" s="30"/>
-      <c r="W54" s="30"/>
+      <c r="P54" s="32"/>
+      <c r="Q54" s="32"/>
+      <c r="R54" s="32"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="41"/>
+      <c r="U54" s="41"/>
+      <c r="V54" s="41"/>
+      <c r="W54" s="41"/>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55">
@@ -9131,41 +9211,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E55" s="25">
-        <v>1</v>
-      </c>
-      <c r="F55" s="26">
-        <v>1</v>
-      </c>
-      <c r="G55" s="26">
-        <v>0</v>
-      </c>
-      <c r="H55" s="26">
-        <v>0</v>
-      </c>
-      <c r="I55" s="26">
-        <v>0</v>
-      </c>
-      <c r="J55" s="28"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="29"/>
-      <c r="N55" s="27">
+      <c r="E55" s="23">
+        <v>1</v>
+      </c>
+      <c r="F55" s="22">
+        <v>1</v>
+      </c>
+      <c r="G55" s="22">
+        <v>0</v>
+      </c>
+      <c r="H55" s="22">
+        <v>0</v>
+      </c>
+      <c r="I55" s="22">
+        <v>0</v>
+      </c>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="32"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O55" s="27">
+      <c r="O55" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P55" s="28"/>
-      <c r="Q55" s="29"/>
-      <c r="R55" s="29"/>
-      <c r="S55" s="29"/>
-      <c r="T55" s="30"/>
-      <c r="U55" s="30"/>
-      <c r="V55" s="30"/>
-      <c r="W55" s="30"/>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="32"/>
+      <c r="R55" s="32"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="41"/>
+      <c r="U55" s="41"/>
+      <c r="V55" s="41"/>
+      <c r="W55" s="41"/>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56">
@@ -9184,41 +9264,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E56" s="25">
-        <v>1</v>
-      </c>
-      <c r="F56" s="26">
-        <v>1</v>
-      </c>
-      <c r="G56" s="26">
-        <v>0</v>
-      </c>
-      <c r="H56" s="26">
-        <v>0</v>
-      </c>
-      <c r="I56" s="26">
-        <v>0</v>
-      </c>
-      <c r="J56" s="28"/>
-      <c r="K56" s="29"/>
-      <c r="L56" s="29"/>
-      <c r="M56" s="29"/>
-      <c r="N56" s="27">
+      <c r="E56" s="23">
+        <v>1</v>
+      </c>
+      <c r="F56" s="22">
+        <v>1</v>
+      </c>
+      <c r="G56" s="22">
+        <v>0</v>
+      </c>
+      <c r="H56" s="22">
+        <v>0</v>
+      </c>
+      <c r="I56" s="22">
+        <v>0</v>
+      </c>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="32"/>
+      <c r="M56" s="32"/>
+      <c r="N56" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O56" s="27">
+      <c r="O56" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P56" s="28"/>
-      <c r="Q56" s="29"/>
-      <c r="R56" s="29"/>
-      <c r="S56" s="29"/>
-      <c r="T56" s="30"/>
-      <c r="U56" s="30"/>
-      <c r="V56" s="30"/>
-      <c r="W56" s="30"/>
+      <c r="P56" s="32"/>
+      <c r="Q56" s="32"/>
+      <c r="R56" s="32"/>
+      <c r="S56" s="32"/>
+      <c r="T56" s="41"/>
+      <c r="U56" s="41"/>
+      <c r="V56" s="41"/>
+      <c r="W56" s="41"/>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57">
@@ -9237,41 +9317,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E57" s="25">
-        <v>1</v>
-      </c>
-      <c r="F57" s="26">
-        <v>1</v>
-      </c>
-      <c r="G57" s="26">
-        <v>0</v>
-      </c>
-      <c r="H57" s="26">
-        <v>0</v>
-      </c>
-      <c r="I57" s="26">
-        <v>0</v>
-      </c>
-      <c r="J57" s="28"/>
-      <c r="K57" s="29"/>
-      <c r="L57" s="29"/>
-      <c r="M57" s="29"/>
-      <c r="N57" s="27">
+      <c r="E57" s="23">
+        <v>1</v>
+      </c>
+      <c r="F57" s="22">
+        <v>1</v>
+      </c>
+      <c r="G57" s="22">
+        <v>0</v>
+      </c>
+      <c r="H57" s="22">
+        <v>0</v>
+      </c>
+      <c r="I57" s="22">
+        <v>0</v>
+      </c>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="32"/>
+      <c r="M57" s="32"/>
+      <c r="N57" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O57" s="27">
+      <c r="O57" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P57" s="28"/>
-      <c r="Q57" s="29"/>
-      <c r="R57" s="29"/>
-      <c r="S57" s="29"/>
-      <c r="T57" s="30"/>
-      <c r="U57" s="30"/>
-      <c r="V57" s="30"/>
-      <c r="W57" s="30"/>
+      <c r="P57" s="32"/>
+      <c r="Q57" s="32"/>
+      <c r="R57" s="32"/>
+      <c r="S57" s="32"/>
+      <c r="T57" s="41"/>
+      <c r="U57" s="41"/>
+      <c r="V57" s="41"/>
+      <c r="W57" s="41"/>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58">
@@ -9290,41 +9370,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E58" s="25">
-        <v>1</v>
-      </c>
-      <c r="F58" s="26">
-        <v>1</v>
-      </c>
-      <c r="G58" s="26">
-        <v>0</v>
-      </c>
-      <c r="H58" s="26">
-        <v>0</v>
-      </c>
-      <c r="I58" s="26">
-        <v>0</v>
-      </c>
-      <c r="J58" s="28"/>
-      <c r="K58" s="29"/>
-      <c r="L58" s="29"/>
-      <c r="M58" s="29"/>
-      <c r="N58" s="27">
+      <c r="E58" s="23">
+        <v>1</v>
+      </c>
+      <c r="F58" s="22">
+        <v>1</v>
+      </c>
+      <c r="G58" s="22">
+        <v>0</v>
+      </c>
+      <c r="H58" s="22">
+        <v>0</v>
+      </c>
+      <c r="I58" s="22">
+        <v>0</v>
+      </c>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="32"/>
+      <c r="N58" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O58" s="27">
+      <c r="O58" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P58" s="28"/>
-      <c r="Q58" s="29"/>
-      <c r="R58" s="29"/>
-      <c r="S58" s="29"/>
-      <c r="T58" s="30"/>
-      <c r="U58" s="30"/>
-      <c r="V58" s="30"/>
-      <c r="W58" s="30"/>
+      <c r="P58" s="32"/>
+      <c r="Q58" s="32"/>
+      <c r="R58" s="32"/>
+      <c r="S58" s="32"/>
+      <c r="T58" s="41"/>
+      <c r="U58" s="41"/>
+      <c r="V58" s="41"/>
+      <c r="W58" s="41"/>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59">
@@ -9343,41 +9423,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E59" s="25">
-        <v>1</v>
-      </c>
-      <c r="F59" s="26">
-        <v>1</v>
-      </c>
-      <c r="G59" s="26">
-        <v>0</v>
-      </c>
-      <c r="H59" s="26">
-        <v>0</v>
-      </c>
-      <c r="I59" s="26">
-        <v>0</v>
-      </c>
-      <c r="J59" s="28"/>
-      <c r="K59" s="29"/>
-      <c r="L59" s="29"/>
-      <c r="M59" s="29"/>
-      <c r="N59" s="27">
+      <c r="E59" s="23">
+        <v>1</v>
+      </c>
+      <c r="F59" s="22">
+        <v>1</v>
+      </c>
+      <c r="G59" s="22">
+        <v>0</v>
+      </c>
+      <c r="H59" s="22">
+        <v>0</v>
+      </c>
+      <c r="I59" s="22">
+        <v>0</v>
+      </c>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="32"/>
+      <c r="M59" s="32"/>
+      <c r="N59" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O59" s="27">
+      <c r="O59" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P59" s="28"/>
-      <c r="Q59" s="29"/>
-      <c r="R59" s="29"/>
-      <c r="S59" s="29"/>
-      <c r="T59" s="30"/>
-      <c r="U59" s="30"/>
-      <c r="V59" s="30"/>
-      <c r="W59" s="30"/>
+      <c r="P59" s="32"/>
+      <c r="Q59" s="32"/>
+      <c r="R59" s="32"/>
+      <c r="S59" s="32"/>
+      <c r="T59" s="41"/>
+      <c r="U59" s="41"/>
+      <c r="V59" s="41"/>
+      <c r="W59" s="41"/>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60">
@@ -9396,41 +9476,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E60" s="25">
-        <v>1</v>
-      </c>
-      <c r="F60" s="26">
-        <v>1</v>
-      </c>
-      <c r="G60" s="26">
-        <v>0</v>
-      </c>
-      <c r="H60" s="26">
-        <v>0</v>
-      </c>
-      <c r="I60" s="26">
-        <v>0</v>
-      </c>
-      <c r="J60" s="28"/>
-      <c r="K60" s="29"/>
-      <c r="L60" s="29"/>
-      <c r="M60" s="29"/>
-      <c r="N60" s="27">
+      <c r="E60" s="23">
+        <v>1</v>
+      </c>
+      <c r="F60" s="22">
+        <v>1</v>
+      </c>
+      <c r="G60" s="22">
+        <v>0</v>
+      </c>
+      <c r="H60" s="22">
+        <v>0</v>
+      </c>
+      <c r="I60" s="22">
+        <v>0</v>
+      </c>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="32"/>
+      <c r="M60" s="32"/>
+      <c r="N60" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O60" s="27">
+      <c r="O60" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P60" s="28"/>
-      <c r="Q60" s="29"/>
-      <c r="R60" s="29"/>
-      <c r="S60" s="29"/>
-      <c r="T60" s="30"/>
-      <c r="U60" s="30"/>
-      <c r="V60" s="30"/>
-      <c r="W60" s="30"/>
+      <c r="P60" s="32"/>
+      <c r="Q60" s="32"/>
+      <c r="R60" s="32"/>
+      <c r="S60" s="32"/>
+      <c r="T60" s="41"/>
+      <c r="U60" s="41"/>
+      <c r="V60" s="41"/>
+      <c r="W60" s="41"/>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61">
@@ -9449,41 +9529,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E61" s="25">
-        <v>1</v>
-      </c>
-      <c r="F61" s="26">
-        <v>1</v>
-      </c>
-      <c r="G61" s="26">
-        <v>0</v>
-      </c>
-      <c r="H61" s="26">
-        <v>0</v>
-      </c>
-      <c r="I61" s="26">
-        <v>0</v>
-      </c>
-      <c r="J61" s="28"/>
-      <c r="K61" s="29"/>
-      <c r="L61" s="29"/>
-      <c r="M61" s="29"/>
-      <c r="N61" s="27">
+      <c r="E61" s="23">
+        <v>1</v>
+      </c>
+      <c r="F61" s="22">
+        <v>1</v>
+      </c>
+      <c r="G61" s="22">
+        <v>0</v>
+      </c>
+      <c r="H61" s="22">
+        <v>0</v>
+      </c>
+      <c r="I61" s="22">
+        <v>0</v>
+      </c>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="32"/>
+      <c r="M61" s="32"/>
+      <c r="N61" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O61" s="27">
+      <c r="O61" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P61" s="28"/>
-      <c r="Q61" s="29"/>
-      <c r="R61" s="29"/>
-      <c r="S61" s="29"/>
-      <c r="T61" s="30"/>
-      <c r="U61" s="30"/>
-      <c r="V61" s="30"/>
-      <c r="W61" s="30"/>
+      <c r="P61" s="32"/>
+      <c r="Q61" s="32"/>
+      <c r="R61" s="32"/>
+      <c r="S61" s="32"/>
+      <c r="T61" s="41"/>
+      <c r="U61" s="41"/>
+      <c r="V61" s="41"/>
+      <c r="W61" s="41"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62">
@@ -9502,41 +9582,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E62" s="25">
-        <v>1</v>
-      </c>
-      <c r="F62" s="26">
-        <v>1</v>
-      </c>
-      <c r="G62" s="26">
-        <v>0</v>
-      </c>
-      <c r="H62" s="26">
-        <v>0</v>
-      </c>
-      <c r="I62" s="26">
-        <v>0</v>
-      </c>
-      <c r="J62" s="28"/>
-      <c r="K62" s="29"/>
-      <c r="L62" s="29"/>
-      <c r="M62" s="29"/>
-      <c r="N62" s="27">
+      <c r="E62" s="23">
+        <v>1</v>
+      </c>
+      <c r="F62" s="22">
+        <v>1</v>
+      </c>
+      <c r="G62" s="22">
+        <v>0</v>
+      </c>
+      <c r="H62" s="22">
+        <v>0</v>
+      </c>
+      <c r="I62" s="22">
+        <v>0</v>
+      </c>
+      <c r="J62" s="32"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="32"/>
+      <c r="M62" s="32"/>
+      <c r="N62" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O62" s="27">
+      <c r="O62" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P62" s="28"/>
-      <c r="Q62" s="29"/>
-      <c r="R62" s="29"/>
-      <c r="S62" s="29"/>
-      <c r="T62" s="30"/>
-      <c r="U62" s="30"/>
-      <c r="V62" s="30"/>
-      <c r="W62" s="30"/>
+      <c r="P62" s="32"/>
+      <c r="Q62" s="32"/>
+      <c r="R62" s="32"/>
+      <c r="S62" s="32"/>
+      <c r="T62" s="41"/>
+      <c r="U62" s="41"/>
+      <c r="V62" s="41"/>
+      <c r="W62" s="41"/>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63">
@@ -9555,41 +9635,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E63" s="25">
-        <v>1</v>
-      </c>
-      <c r="F63" s="26">
-        <v>1</v>
-      </c>
-      <c r="G63" s="26">
-        <v>0</v>
-      </c>
-      <c r="H63" s="26">
-        <v>0</v>
-      </c>
-      <c r="I63" s="26">
-        <v>0</v>
-      </c>
-      <c r="J63" s="28"/>
-      <c r="K63" s="29"/>
-      <c r="L63" s="29"/>
-      <c r="M63" s="29"/>
-      <c r="N63" s="27">
+      <c r="E63" s="23">
+        <v>1</v>
+      </c>
+      <c r="F63" s="22">
+        <v>1</v>
+      </c>
+      <c r="G63" s="22">
+        <v>0</v>
+      </c>
+      <c r="H63" s="22">
+        <v>0</v>
+      </c>
+      <c r="I63" s="22">
+        <v>0</v>
+      </c>
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="32"/>
+      <c r="M63" s="32"/>
+      <c r="N63" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O63" s="27">
+      <c r="O63" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P63" s="28"/>
-      <c r="Q63" s="29"/>
-      <c r="R63" s="29"/>
-      <c r="S63" s="29"/>
-      <c r="T63" s="30"/>
-      <c r="U63" s="30"/>
-      <c r="V63" s="30"/>
-      <c r="W63" s="30"/>
+      <c r="P63" s="32"/>
+      <c r="Q63" s="32"/>
+      <c r="R63" s="32"/>
+      <c r="S63" s="32"/>
+      <c r="T63" s="41"/>
+      <c r="U63" s="41"/>
+      <c r="V63" s="41"/>
+      <c r="W63" s="41"/>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64">
@@ -9608,41 +9688,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E64" s="25">
-        <v>1</v>
-      </c>
-      <c r="F64" s="26">
-        <v>1</v>
-      </c>
-      <c r="G64" s="26">
-        <v>0</v>
-      </c>
-      <c r="H64" s="26">
-        <v>0</v>
-      </c>
-      <c r="I64" s="26">
-        <v>0</v>
-      </c>
-      <c r="J64" s="28"/>
-      <c r="K64" s="29"/>
-      <c r="L64" s="29"/>
-      <c r="M64" s="29"/>
-      <c r="N64" s="27">
+      <c r="E64" s="23">
+        <v>1</v>
+      </c>
+      <c r="F64" s="22">
+        <v>1</v>
+      </c>
+      <c r="G64" s="22">
+        <v>0</v>
+      </c>
+      <c r="H64" s="22">
+        <v>0</v>
+      </c>
+      <c r="I64" s="22">
+        <v>0</v>
+      </c>
+      <c r="J64" s="32"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="32"/>
+      <c r="M64" s="32"/>
+      <c r="N64" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O64" s="27">
+      <c r="O64" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P64" s="28"/>
-      <c r="Q64" s="29"/>
-      <c r="R64" s="29"/>
-      <c r="S64" s="29"/>
-      <c r="T64" s="30"/>
-      <c r="U64" s="30"/>
-      <c r="V64" s="30"/>
-      <c r="W64" s="30"/>
+      <c r="P64" s="32"/>
+      <c r="Q64" s="32"/>
+      <c r="R64" s="32"/>
+      <c r="S64" s="32"/>
+      <c r="T64" s="41"/>
+      <c r="U64" s="41"/>
+      <c r="V64" s="41"/>
+      <c r="W64" s="41"/>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65">
@@ -9661,41 +9741,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E65" s="25">
-        <v>1</v>
-      </c>
-      <c r="F65" s="26">
-        <v>1</v>
-      </c>
-      <c r="G65" s="26">
-        <v>0</v>
-      </c>
-      <c r="H65" s="26">
-        <v>0</v>
-      </c>
-      <c r="I65" s="26">
-        <v>0</v>
-      </c>
-      <c r="J65" s="28"/>
-      <c r="K65" s="29"/>
-      <c r="L65" s="29"/>
-      <c r="M65" s="29"/>
-      <c r="N65" s="27">
+      <c r="E65" s="23">
+        <v>1</v>
+      </c>
+      <c r="F65" s="22">
+        <v>1</v>
+      </c>
+      <c r="G65" s="22">
+        <v>0</v>
+      </c>
+      <c r="H65" s="22">
+        <v>0</v>
+      </c>
+      <c r="I65" s="22">
+        <v>0</v>
+      </c>
+      <c r="J65" s="32"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="32"/>
+      <c r="M65" s="32"/>
+      <c r="N65" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O65" s="27">
+      <c r="O65" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P65" s="28"/>
-      <c r="Q65" s="29"/>
-      <c r="R65" s="29"/>
-      <c r="S65" s="29"/>
-      <c r="T65" s="30"/>
-      <c r="U65" s="30"/>
-      <c r="V65" s="30"/>
-      <c r="W65" s="30"/>
+      <c r="P65" s="32"/>
+      <c r="Q65" s="32"/>
+      <c r="R65" s="32"/>
+      <c r="S65" s="32"/>
+      <c r="T65" s="41"/>
+      <c r="U65" s="41"/>
+      <c r="V65" s="41"/>
+      <c r="W65" s="41"/>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66">
@@ -9714,41 +9794,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E66" s="25">
-        <v>1</v>
-      </c>
-      <c r="F66" s="26">
-        <v>1</v>
-      </c>
-      <c r="G66" s="26">
-        <v>0</v>
-      </c>
-      <c r="H66" s="26">
-        <v>0</v>
-      </c>
-      <c r="I66" s="26">
-        <v>0</v>
-      </c>
-      <c r="J66" s="28"/>
-      <c r="K66" s="29"/>
-      <c r="L66" s="29"/>
-      <c r="M66" s="29"/>
-      <c r="N66" s="27">
+      <c r="E66" s="23">
+        <v>1</v>
+      </c>
+      <c r="F66" s="22">
+        <v>1</v>
+      </c>
+      <c r="G66" s="22">
+        <v>0</v>
+      </c>
+      <c r="H66" s="22">
+        <v>0</v>
+      </c>
+      <c r="I66" s="22">
+        <v>0</v>
+      </c>
+      <c r="J66" s="32"/>
+      <c r="K66" s="32"/>
+      <c r="L66" s="32"/>
+      <c r="M66" s="32"/>
+      <c r="N66" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O66" s="27">
+      <c r="O66" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P66" s="28"/>
-      <c r="Q66" s="29"/>
-      <c r="R66" s="29"/>
-      <c r="S66" s="29"/>
-      <c r="T66" s="30"/>
-      <c r="U66" s="30"/>
-      <c r="V66" s="30"/>
-      <c r="W66" s="30"/>
+      <c r="P66" s="32"/>
+      <c r="Q66" s="32"/>
+      <c r="R66" s="32"/>
+      <c r="S66" s="32"/>
+      <c r="T66" s="41"/>
+      <c r="U66" s="41"/>
+      <c r="V66" s="41"/>
+      <c r="W66" s="41"/>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67">
@@ -9767,41 +9847,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E67" s="25">
-        <v>1</v>
-      </c>
-      <c r="F67" s="26">
-        <v>1</v>
-      </c>
-      <c r="G67" s="26">
-        <v>0</v>
-      </c>
-      <c r="H67" s="26">
-        <v>0</v>
-      </c>
-      <c r="I67" s="26">
-        <v>0</v>
-      </c>
-      <c r="J67" s="28"/>
-      <c r="K67" s="29"/>
-      <c r="L67" s="29"/>
-      <c r="M67" s="29"/>
-      <c r="N67" s="27">
+      <c r="E67" s="23">
+        <v>1</v>
+      </c>
+      <c r="F67" s="22">
+        <v>1</v>
+      </c>
+      <c r="G67" s="22">
+        <v>0</v>
+      </c>
+      <c r="H67" s="22">
+        <v>0</v>
+      </c>
+      <c r="I67" s="22">
+        <v>0</v>
+      </c>
+      <c r="J67" s="32"/>
+      <c r="K67" s="32"/>
+      <c r="L67" s="32"/>
+      <c r="M67" s="32"/>
+      <c r="N67" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O67" s="27">
+      <c r="O67" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P67" s="28"/>
-      <c r="Q67" s="29"/>
-      <c r="R67" s="29"/>
-      <c r="S67" s="29"/>
-      <c r="T67" s="30"/>
-      <c r="U67" s="30"/>
-      <c r="V67" s="30"/>
-      <c r="W67" s="30"/>
+      <c r="P67" s="32"/>
+      <c r="Q67" s="32"/>
+      <c r="R67" s="32"/>
+      <c r="S67" s="32"/>
+      <c r="T67" s="41"/>
+      <c r="U67" s="41"/>
+      <c r="V67" s="41"/>
+      <c r="W67" s="41"/>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68">
@@ -9820,41 +9900,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E68" s="25">
-        <v>1</v>
-      </c>
-      <c r="F68" s="26">
-        <v>1</v>
-      </c>
-      <c r="G68" s="26">
-        <v>0</v>
-      </c>
-      <c r="H68" s="26">
-        <v>0</v>
-      </c>
-      <c r="I68" s="26">
-        <v>0</v>
-      </c>
-      <c r="J68" s="28"/>
-      <c r="K68" s="29"/>
-      <c r="L68" s="29"/>
-      <c r="M68" s="29"/>
-      <c r="N68" s="27">
+      <c r="E68" s="23">
+        <v>1</v>
+      </c>
+      <c r="F68" s="22">
+        <v>1</v>
+      </c>
+      <c r="G68" s="22">
+        <v>0</v>
+      </c>
+      <c r="H68" s="22">
+        <v>0</v>
+      </c>
+      <c r="I68" s="22">
+        <v>0</v>
+      </c>
+      <c r="J68" s="32"/>
+      <c r="K68" s="32"/>
+      <c r="L68" s="32"/>
+      <c r="M68" s="32"/>
+      <c r="N68" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O68" s="27">
+      <c r="O68" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P68" s="28"/>
-      <c r="Q68" s="29"/>
-      <c r="R68" s="29"/>
-      <c r="S68" s="29"/>
-      <c r="T68" s="30"/>
-      <c r="U68" s="30"/>
-      <c r="V68" s="30"/>
-      <c r="W68" s="30"/>
+      <c r="P68" s="32"/>
+      <c r="Q68" s="32"/>
+      <c r="R68" s="32"/>
+      <c r="S68" s="32"/>
+      <c r="T68" s="41"/>
+      <c r="U68" s="41"/>
+      <c r="V68" s="41"/>
+      <c r="W68" s="41"/>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69">
@@ -9873,41 +9953,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E69" s="25">
-        <v>1</v>
-      </c>
-      <c r="F69" s="26">
-        <v>1</v>
-      </c>
-      <c r="G69" s="26">
-        <v>0</v>
-      </c>
-      <c r="H69" s="26">
-        <v>0</v>
-      </c>
-      <c r="I69" s="26">
-        <v>0</v>
-      </c>
-      <c r="J69" s="28"/>
-      <c r="K69" s="29"/>
-      <c r="L69" s="29"/>
-      <c r="M69" s="29"/>
-      <c r="N69" s="27">
+      <c r="E69" s="23">
+        <v>1</v>
+      </c>
+      <c r="F69" s="22">
+        <v>1</v>
+      </c>
+      <c r="G69" s="22">
+        <v>0</v>
+      </c>
+      <c r="H69" s="22">
+        <v>0</v>
+      </c>
+      <c r="I69" s="22">
+        <v>0</v>
+      </c>
+      <c r="J69" s="32"/>
+      <c r="K69" s="32"/>
+      <c r="L69" s="32"/>
+      <c r="M69" s="32"/>
+      <c r="N69" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O69" s="27">
+      <c r="O69" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P69" s="28"/>
-      <c r="Q69" s="29"/>
-      <c r="R69" s="29"/>
-      <c r="S69" s="29"/>
-      <c r="T69" s="30"/>
-      <c r="U69" s="30"/>
-      <c r="V69" s="30"/>
-      <c r="W69" s="30"/>
+      <c r="P69" s="32"/>
+      <c r="Q69" s="32"/>
+      <c r="R69" s="32"/>
+      <c r="S69" s="32"/>
+      <c r="T69" s="41"/>
+      <c r="U69" s="41"/>
+      <c r="V69" s="41"/>
+      <c r="W69" s="41"/>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70">
@@ -9926,41 +10006,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E70" s="25">
-        <v>1</v>
-      </c>
-      <c r="F70" s="26">
-        <v>1</v>
-      </c>
-      <c r="G70" s="26">
-        <v>0</v>
-      </c>
-      <c r="H70" s="26">
-        <v>0</v>
-      </c>
-      <c r="I70" s="26">
-        <v>0</v>
-      </c>
-      <c r="J70" s="28"/>
-      <c r="K70" s="29"/>
-      <c r="L70" s="29"/>
-      <c r="M70" s="29"/>
-      <c r="N70" s="27">
+      <c r="E70" s="23">
+        <v>1</v>
+      </c>
+      <c r="F70" s="22">
+        <v>1</v>
+      </c>
+      <c r="G70" s="22">
+        <v>0</v>
+      </c>
+      <c r="H70" s="22">
+        <v>0</v>
+      </c>
+      <c r="I70" s="22">
+        <v>0</v>
+      </c>
+      <c r="J70" s="32"/>
+      <c r="K70" s="32"/>
+      <c r="L70" s="32"/>
+      <c r="M70" s="32"/>
+      <c r="N70" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O70" s="27">
+      <c r="O70" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P70" s="28"/>
-      <c r="Q70" s="29"/>
-      <c r="R70" s="29"/>
-      <c r="S70" s="29"/>
-      <c r="T70" s="30"/>
-      <c r="U70" s="30"/>
-      <c r="V70" s="30"/>
-      <c r="W70" s="30"/>
+      <c r="P70" s="32"/>
+      <c r="Q70" s="32"/>
+      <c r="R70" s="32"/>
+      <c r="S70" s="32"/>
+      <c r="T70" s="41"/>
+      <c r="U70" s="41"/>
+      <c r="V70" s="41"/>
+      <c r="W70" s="41"/>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71">
@@ -9979,41 +10059,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E71" s="25">
-        <v>1</v>
-      </c>
-      <c r="F71" s="26">
-        <v>1</v>
-      </c>
-      <c r="G71" s="26">
-        <v>0</v>
-      </c>
-      <c r="H71" s="26">
-        <v>0</v>
-      </c>
-      <c r="I71" s="26">
-        <v>0</v>
-      </c>
-      <c r="J71" s="28"/>
-      <c r="K71" s="29"/>
-      <c r="L71" s="29"/>
-      <c r="M71" s="29"/>
-      <c r="N71" s="27">
+      <c r="E71" s="23">
+        <v>1</v>
+      </c>
+      <c r="F71" s="22">
+        <v>1</v>
+      </c>
+      <c r="G71" s="22">
+        <v>0</v>
+      </c>
+      <c r="H71" s="22">
+        <v>0</v>
+      </c>
+      <c r="I71" s="22">
+        <v>0</v>
+      </c>
+      <c r="J71" s="32"/>
+      <c r="K71" s="32"/>
+      <c r="L71" s="32"/>
+      <c r="M71" s="32"/>
+      <c r="N71" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O71" s="27">
+      <c r="O71" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P71" s="28"/>
-      <c r="Q71" s="29"/>
-      <c r="R71" s="29"/>
-      <c r="S71" s="29"/>
-      <c r="T71" s="30"/>
-      <c r="U71" s="30"/>
-      <c r="V71" s="30"/>
-      <c r="W71" s="30"/>
+      <c r="P71" s="32"/>
+      <c r="Q71" s="32"/>
+      <c r="R71" s="32"/>
+      <c r="S71" s="32"/>
+      <c r="T71" s="41"/>
+      <c r="U71" s="41"/>
+      <c r="V71" s="41"/>
+      <c r="W71" s="41"/>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72">
@@ -10032,41 +10112,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E72" s="25">
-        <v>1</v>
-      </c>
-      <c r="F72" s="26">
-        <v>1</v>
-      </c>
-      <c r="G72" s="26">
-        <v>0</v>
-      </c>
-      <c r="H72" s="26">
-        <v>0</v>
-      </c>
-      <c r="I72" s="26">
-        <v>0</v>
-      </c>
-      <c r="J72" s="28"/>
-      <c r="K72" s="29"/>
-      <c r="L72" s="29"/>
-      <c r="M72" s="29"/>
-      <c r="N72" s="27">
+      <c r="E72" s="23">
+        <v>1</v>
+      </c>
+      <c r="F72" s="22">
+        <v>1</v>
+      </c>
+      <c r="G72" s="22">
+        <v>0</v>
+      </c>
+      <c r="H72" s="22">
+        <v>0</v>
+      </c>
+      <c r="I72" s="22">
+        <v>0</v>
+      </c>
+      <c r="J72" s="32"/>
+      <c r="K72" s="32"/>
+      <c r="L72" s="32"/>
+      <c r="M72" s="32"/>
+      <c r="N72" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O72" s="27">
+      <c r="O72" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P72" s="28"/>
-      <c r="Q72" s="29"/>
-      <c r="R72" s="29"/>
-      <c r="S72" s="29"/>
-      <c r="T72" s="30"/>
-      <c r="U72" s="30"/>
-      <c r="V72" s="30"/>
-      <c r="W72" s="30"/>
+      <c r="P72" s="32"/>
+      <c r="Q72" s="32"/>
+      <c r="R72" s="32"/>
+      <c r="S72" s="32"/>
+      <c r="T72" s="41"/>
+      <c r="U72" s="41"/>
+      <c r="V72" s="41"/>
+      <c r="W72" s="41"/>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73">
@@ -10085,41 +10165,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E73" s="25">
-        <v>1</v>
-      </c>
-      <c r="F73" s="26">
-        <v>1</v>
-      </c>
-      <c r="G73" s="26">
-        <v>0</v>
-      </c>
-      <c r="H73" s="26">
-        <v>0</v>
-      </c>
-      <c r="I73" s="26">
-        <v>0</v>
-      </c>
-      <c r="J73" s="28"/>
-      <c r="K73" s="29"/>
-      <c r="L73" s="29"/>
-      <c r="M73" s="29"/>
-      <c r="N73" s="27">
+      <c r="E73" s="23">
+        <v>1</v>
+      </c>
+      <c r="F73" s="22">
+        <v>1</v>
+      </c>
+      <c r="G73" s="22">
+        <v>0</v>
+      </c>
+      <c r="H73" s="22">
+        <v>0</v>
+      </c>
+      <c r="I73" s="22">
+        <v>0</v>
+      </c>
+      <c r="J73" s="32"/>
+      <c r="K73" s="32"/>
+      <c r="L73" s="32"/>
+      <c r="M73" s="32"/>
+      <c r="N73" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O73" s="27">
+      <c r="O73" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P73" s="28"/>
-      <c r="Q73" s="29"/>
-      <c r="R73" s="29"/>
-      <c r="S73" s="29"/>
-      <c r="T73" s="30"/>
-      <c r="U73" s="30"/>
-      <c r="V73" s="30"/>
-      <c r="W73" s="30"/>
+      <c r="P73" s="32"/>
+      <c r="Q73" s="32"/>
+      <c r="R73" s="32"/>
+      <c r="S73" s="32"/>
+      <c r="T73" s="41"/>
+      <c r="U73" s="41"/>
+      <c r="V73" s="41"/>
+      <c r="W73" s="41"/>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74">
@@ -10138,41 +10218,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E74" s="25">
-        <v>1</v>
-      </c>
-      <c r="F74" s="26">
-        <v>1</v>
-      </c>
-      <c r="G74" s="26">
-        <v>0</v>
-      </c>
-      <c r="H74" s="26">
-        <v>0</v>
-      </c>
-      <c r="I74" s="26">
-        <v>0</v>
-      </c>
-      <c r="J74" s="28"/>
-      <c r="K74" s="29"/>
-      <c r="L74" s="29"/>
-      <c r="M74" s="29"/>
-      <c r="N74" s="27">
+      <c r="E74" s="23">
+        <v>1</v>
+      </c>
+      <c r="F74" s="22">
+        <v>1</v>
+      </c>
+      <c r="G74" s="22">
+        <v>0</v>
+      </c>
+      <c r="H74" s="22">
+        <v>0</v>
+      </c>
+      <c r="I74" s="22">
+        <v>0</v>
+      </c>
+      <c r="J74" s="32"/>
+      <c r="K74" s="32"/>
+      <c r="L74" s="32"/>
+      <c r="M74" s="32"/>
+      <c r="N74" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O74" s="27">
+      <c r="O74" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P74" s="28"/>
-      <c r="Q74" s="29"/>
-      <c r="R74" s="29"/>
-      <c r="S74" s="29"/>
-      <c r="T74" s="30"/>
-      <c r="U74" s="30"/>
-      <c r="V74" s="30"/>
-      <c r="W74" s="30"/>
+      <c r="P74" s="32"/>
+      <c r="Q74" s="32"/>
+      <c r="R74" s="32"/>
+      <c r="S74" s="32"/>
+      <c r="T74" s="41"/>
+      <c r="U74" s="41"/>
+      <c r="V74" s="41"/>
+      <c r="W74" s="41"/>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75">
@@ -10191,41 +10271,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E75" s="25">
-        <v>1</v>
-      </c>
-      <c r="F75" s="26">
-        <v>1</v>
-      </c>
-      <c r="G75" s="26">
-        <v>0</v>
-      </c>
-      <c r="H75" s="26">
-        <v>0</v>
-      </c>
-      <c r="I75" s="26">
-        <v>0</v>
-      </c>
-      <c r="J75" s="28"/>
-      <c r="K75" s="29"/>
-      <c r="L75" s="29"/>
-      <c r="M75" s="29"/>
-      <c r="N75" s="27">
+      <c r="E75" s="23">
+        <v>1</v>
+      </c>
+      <c r="F75" s="22">
+        <v>1</v>
+      </c>
+      <c r="G75" s="22">
+        <v>0</v>
+      </c>
+      <c r="H75" s="22">
+        <v>0</v>
+      </c>
+      <c r="I75" s="22">
+        <v>0</v>
+      </c>
+      <c r="J75" s="32"/>
+      <c r="K75" s="32"/>
+      <c r="L75" s="32"/>
+      <c r="M75" s="32"/>
+      <c r="N75" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O75" s="27">
+      <c r="O75" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P75" s="28"/>
-      <c r="Q75" s="29"/>
-      <c r="R75" s="29"/>
-      <c r="S75" s="29"/>
-      <c r="T75" s="30"/>
-      <c r="U75" s="30"/>
-      <c r="V75" s="30"/>
-      <c r="W75" s="30"/>
+      <c r="P75" s="32"/>
+      <c r="Q75" s="32"/>
+      <c r="R75" s="32"/>
+      <c r="S75" s="32"/>
+      <c r="T75" s="41"/>
+      <c r="U75" s="41"/>
+      <c r="V75" s="41"/>
+      <c r="W75" s="41"/>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76">
@@ -10244,41 +10324,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E76" s="25">
-        <v>1</v>
-      </c>
-      <c r="F76" s="26">
-        <v>1</v>
-      </c>
-      <c r="G76" s="26">
-        <v>0</v>
-      </c>
-      <c r="H76" s="26">
-        <v>0</v>
-      </c>
-      <c r="I76" s="26">
-        <v>0</v>
-      </c>
-      <c r="J76" s="28"/>
-      <c r="K76" s="29"/>
-      <c r="L76" s="29"/>
-      <c r="M76" s="29"/>
-      <c r="N76" s="27">
+      <c r="E76" s="23">
+        <v>1</v>
+      </c>
+      <c r="F76" s="22">
+        <v>1</v>
+      </c>
+      <c r="G76" s="22">
+        <v>0</v>
+      </c>
+      <c r="H76" s="22">
+        <v>0</v>
+      </c>
+      <c r="I76" s="22">
+        <v>0</v>
+      </c>
+      <c r="J76" s="32"/>
+      <c r="K76" s="32"/>
+      <c r="L76" s="32"/>
+      <c r="M76" s="32"/>
+      <c r="N76" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O76" s="27">
+      <c r="O76" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P76" s="28"/>
-      <c r="Q76" s="29"/>
-      <c r="R76" s="29"/>
-      <c r="S76" s="29"/>
-      <c r="T76" s="30"/>
-      <c r="U76" s="30"/>
-      <c r="V76" s="30"/>
-      <c r="W76" s="30"/>
+      <c r="P76" s="32"/>
+      <c r="Q76" s="32"/>
+      <c r="R76" s="32"/>
+      <c r="S76" s="32"/>
+      <c r="T76" s="41"/>
+      <c r="U76" s="41"/>
+      <c r="V76" s="41"/>
+      <c r="W76" s="41"/>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77">
@@ -10297,41 +10377,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E77" s="25">
-        <v>1</v>
-      </c>
-      <c r="F77" s="26">
-        <v>1</v>
-      </c>
-      <c r="G77" s="26">
-        <v>0</v>
-      </c>
-      <c r="H77" s="26">
-        <v>0</v>
-      </c>
-      <c r="I77" s="26">
-        <v>0</v>
-      </c>
-      <c r="J77" s="28"/>
-      <c r="K77" s="29"/>
-      <c r="L77" s="29"/>
-      <c r="M77" s="29"/>
-      <c r="N77" s="27">
+      <c r="E77" s="23">
+        <v>1</v>
+      </c>
+      <c r="F77" s="22">
+        <v>1</v>
+      </c>
+      <c r="G77" s="22">
+        <v>0</v>
+      </c>
+      <c r="H77" s="22">
+        <v>0</v>
+      </c>
+      <c r="I77" s="22">
+        <v>0</v>
+      </c>
+      <c r="J77" s="32"/>
+      <c r="K77" s="32"/>
+      <c r="L77" s="32"/>
+      <c r="M77" s="32"/>
+      <c r="N77" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O77" s="27">
+      <c r="O77" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P77" s="28"/>
-      <c r="Q77" s="29"/>
-      <c r="R77" s="29"/>
-      <c r="S77" s="29"/>
-      <c r="T77" s="30"/>
-      <c r="U77" s="30"/>
-      <c r="V77" s="30"/>
-      <c r="W77" s="30"/>
+      <c r="P77" s="32"/>
+      <c r="Q77" s="32"/>
+      <c r="R77" s="32"/>
+      <c r="S77" s="32"/>
+      <c r="T77" s="41"/>
+      <c r="U77" s="41"/>
+      <c r="V77" s="41"/>
+      <c r="W77" s="41"/>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78">
@@ -10350,41 +10430,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E78" s="25">
-        <v>1</v>
-      </c>
-      <c r="F78" s="26">
-        <v>1</v>
-      </c>
-      <c r="G78" s="26">
-        <v>0</v>
-      </c>
-      <c r="H78" s="26">
-        <v>0</v>
-      </c>
-      <c r="I78" s="26">
-        <v>0</v>
-      </c>
-      <c r="J78" s="28"/>
-      <c r="K78" s="29"/>
-      <c r="L78" s="29"/>
-      <c r="M78" s="29"/>
-      <c r="N78" s="27">
+      <c r="E78" s="23">
+        <v>1</v>
+      </c>
+      <c r="F78" s="22">
+        <v>1</v>
+      </c>
+      <c r="G78" s="22">
+        <v>0</v>
+      </c>
+      <c r="H78" s="22">
+        <v>0</v>
+      </c>
+      <c r="I78" s="22">
+        <v>0</v>
+      </c>
+      <c r="J78" s="32"/>
+      <c r="K78" s="32"/>
+      <c r="L78" s="32"/>
+      <c r="M78" s="32"/>
+      <c r="N78" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O78" s="27">
+      <c r="O78" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P78" s="28"/>
-      <c r="Q78" s="29"/>
-      <c r="R78" s="29"/>
-      <c r="S78" s="29"/>
-      <c r="T78" s="30"/>
-      <c r="U78" s="30"/>
-      <c r="V78" s="30"/>
-      <c r="W78" s="30"/>
+      <c r="P78" s="32"/>
+      <c r="Q78" s="32"/>
+      <c r="R78" s="32"/>
+      <c r="S78" s="32"/>
+      <c r="T78" s="41"/>
+      <c r="U78" s="41"/>
+      <c r="V78" s="41"/>
+      <c r="W78" s="41"/>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79">
@@ -10403,41 +10483,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E79" s="25">
-        <v>1</v>
-      </c>
-      <c r="F79" s="26">
-        <v>1</v>
-      </c>
-      <c r="G79" s="26">
-        <v>0</v>
-      </c>
-      <c r="H79" s="26">
-        <v>0</v>
-      </c>
-      <c r="I79" s="26">
-        <v>0</v>
-      </c>
-      <c r="J79" s="28"/>
-      <c r="K79" s="29"/>
-      <c r="L79" s="29"/>
-      <c r="M79" s="29"/>
-      <c r="N79" s="27">
+      <c r="E79" s="23">
+        <v>1</v>
+      </c>
+      <c r="F79" s="22">
+        <v>1</v>
+      </c>
+      <c r="G79" s="22">
+        <v>0</v>
+      </c>
+      <c r="H79" s="22">
+        <v>0</v>
+      </c>
+      <c r="I79" s="22">
+        <v>0</v>
+      </c>
+      <c r="J79" s="32"/>
+      <c r="K79" s="32"/>
+      <c r="L79" s="32"/>
+      <c r="M79" s="32"/>
+      <c r="N79" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="27">
+      <c r="O79" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P79" s="28"/>
-      <c r="Q79" s="29"/>
-      <c r="R79" s="29"/>
-      <c r="S79" s="29"/>
-      <c r="T79" s="30"/>
-      <c r="U79" s="30"/>
-      <c r="V79" s="30"/>
-      <c r="W79" s="30"/>
+      <c r="P79" s="32"/>
+      <c r="Q79" s="32"/>
+      <c r="R79" s="32"/>
+      <c r="S79" s="32"/>
+      <c r="T79" s="41"/>
+      <c r="U79" s="41"/>
+      <c r="V79" s="41"/>
+      <c r="W79" s="41"/>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80">
@@ -10456,41 +10536,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E80" s="25">
-        <v>1</v>
-      </c>
-      <c r="F80" s="26">
-        <v>1</v>
-      </c>
-      <c r="G80" s="26">
-        <v>0</v>
-      </c>
-      <c r="H80" s="26">
-        <v>0</v>
-      </c>
-      <c r="I80" s="26">
-        <v>0</v>
-      </c>
-      <c r="J80" s="28"/>
-      <c r="K80" s="29"/>
-      <c r="L80" s="29"/>
-      <c r="M80" s="29"/>
-      <c r="N80" s="27">
+      <c r="E80" s="23">
+        <v>1</v>
+      </c>
+      <c r="F80" s="22">
+        <v>1</v>
+      </c>
+      <c r="G80" s="22">
+        <v>0</v>
+      </c>
+      <c r="H80" s="22">
+        <v>0</v>
+      </c>
+      <c r="I80" s="22">
+        <v>0</v>
+      </c>
+      <c r="J80" s="32"/>
+      <c r="K80" s="32"/>
+      <c r="L80" s="32"/>
+      <c r="M80" s="32"/>
+      <c r="N80" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="27">
+      <c r="O80" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P80" s="28"/>
-      <c r="Q80" s="29"/>
-      <c r="R80" s="29"/>
-      <c r="S80" s="29"/>
-      <c r="T80" s="30"/>
-      <c r="U80" s="30"/>
-      <c r="V80" s="30"/>
-      <c r="W80" s="30"/>
+      <c r="P80" s="32"/>
+      <c r="Q80" s="32"/>
+      <c r="R80" s="32"/>
+      <c r="S80" s="32"/>
+      <c r="T80" s="41"/>
+      <c r="U80" s="41"/>
+      <c r="V80" s="41"/>
+      <c r="W80" s="41"/>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81">
@@ -10509,41 +10589,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E81" s="25">
-        <v>1</v>
-      </c>
-      <c r="F81" s="26">
-        <v>1</v>
-      </c>
-      <c r="G81" s="26">
-        <v>0</v>
-      </c>
-      <c r="H81" s="26">
-        <v>0</v>
-      </c>
-      <c r="I81" s="26">
-        <v>0</v>
-      </c>
-      <c r="J81" s="28"/>
-      <c r="K81" s="29"/>
-      <c r="L81" s="29"/>
-      <c r="M81" s="29"/>
-      <c r="N81" s="27">
+      <c r="E81" s="23">
+        <v>1</v>
+      </c>
+      <c r="F81" s="22">
+        <v>1</v>
+      </c>
+      <c r="G81" s="22">
+        <v>0</v>
+      </c>
+      <c r="H81" s="22">
+        <v>0</v>
+      </c>
+      <c r="I81" s="22">
+        <v>0</v>
+      </c>
+      <c r="J81" s="32"/>
+      <c r="K81" s="32"/>
+      <c r="L81" s="32"/>
+      <c r="M81" s="32"/>
+      <c r="N81" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="27">
+      <c r="O81" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P81" s="28"/>
-      <c r="Q81" s="29"/>
-      <c r="R81" s="29"/>
-      <c r="S81" s="29"/>
-      <c r="T81" s="30"/>
-      <c r="U81" s="30"/>
-      <c r="V81" s="30"/>
-      <c r="W81" s="30"/>
+      <c r="P81" s="32"/>
+      <c r="Q81" s="32"/>
+      <c r="R81" s="32"/>
+      <c r="S81" s="32"/>
+      <c r="T81" s="41"/>
+      <c r="U81" s="41"/>
+      <c r="V81" s="41"/>
+      <c r="W81" s="41"/>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82">
@@ -10562,41 +10642,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E82" s="25">
-        <v>1</v>
-      </c>
-      <c r="F82" s="26">
-        <v>1</v>
-      </c>
-      <c r="G82" s="26">
-        <v>0</v>
-      </c>
-      <c r="H82" s="26">
-        <v>0</v>
-      </c>
-      <c r="I82" s="26">
-        <v>0</v>
-      </c>
-      <c r="J82" s="28"/>
-      <c r="K82" s="29"/>
-      <c r="L82" s="29"/>
-      <c r="M82" s="29"/>
-      <c r="N82" s="27">
+      <c r="E82" s="23">
+        <v>1</v>
+      </c>
+      <c r="F82" s="22">
+        <v>1</v>
+      </c>
+      <c r="G82" s="22">
+        <v>0</v>
+      </c>
+      <c r="H82" s="22">
+        <v>0</v>
+      </c>
+      <c r="I82" s="22">
+        <v>0</v>
+      </c>
+      <c r="J82" s="32"/>
+      <c r="K82" s="32"/>
+      <c r="L82" s="32"/>
+      <c r="M82" s="32"/>
+      <c r="N82" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="27">
+      <c r="O82" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P82" s="28"/>
-      <c r="Q82" s="29"/>
-      <c r="R82" s="29"/>
-      <c r="S82" s="29"/>
-      <c r="T82" s="30"/>
-      <c r="U82" s="30"/>
-      <c r="V82" s="30"/>
-      <c r="W82" s="30"/>
+      <c r="P82" s="32"/>
+      <c r="Q82" s="32"/>
+      <c r="R82" s="32"/>
+      <c r="S82" s="32"/>
+      <c r="T82" s="41"/>
+      <c r="U82" s="41"/>
+      <c r="V82" s="41"/>
+      <c r="W82" s="41"/>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83">
@@ -10615,41 +10695,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E83" s="25">
-        <v>1</v>
-      </c>
-      <c r="F83" s="26">
-        <v>1</v>
-      </c>
-      <c r="G83" s="26">
-        <v>0</v>
-      </c>
-      <c r="H83" s="26">
-        <v>0</v>
-      </c>
-      <c r="I83" s="26">
-        <v>0</v>
-      </c>
-      <c r="J83" s="28"/>
-      <c r="K83" s="29"/>
-      <c r="L83" s="29"/>
-      <c r="M83" s="29"/>
-      <c r="N83" s="27">
+      <c r="E83" s="23">
+        <v>1</v>
+      </c>
+      <c r="F83" s="22">
+        <v>1</v>
+      </c>
+      <c r="G83" s="22">
+        <v>0</v>
+      </c>
+      <c r="H83" s="22">
+        <v>0</v>
+      </c>
+      <c r="I83" s="22">
+        <v>0</v>
+      </c>
+      <c r="J83" s="32"/>
+      <c r="K83" s="32"/>
+      <c r="L83" s="32"/>
+      <c r="M83" s="32"/>
+      <c r="N83" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O83" s="27">
+      <c r="O83" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P83" s="28"/>
-      <c r="Q83" s="29"/>
-      <c r="R83" s="29"/>
-      <c r="S83" s="29"/>
-      <c r="T83" s="30"/>
-      <c r="U83" s="30"/>
-      <c r="V83" s="30"/>
-      <c r="W83" s="30"/>
+      <c r="P83" s="32"/>
+      <c r="Q83" s="32"/>
+      <c r="R83" s="32"/>
+      <c r="S83" s="32"/>
+      <c r="T83" s="41"/>
+      <c r="U83" s="41"/>
+      <c r="V83" s="41"/>
+      <c r="W83" s="41"/>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84">
@@ -10668,41 +10748,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E84" s="25">
-        <v>1</v>
-      </c>
-      <c r="F84" s="26">
-        <v>1</v>
-      </c>
-      <c r="G84" s="26">
-        <v>0</v>
-      </c>
-      <c r="H84" s="26">
-        <v>0</v>
-      </c>
-      <c r="I84" s="26">
-        <v>0</v>
-      </c>
-      <c r="J84" s="28"/>
-      <c r="K84" s="29"/>
-      <c r="L84" s="29"/>
-      <c r="M84" s="29"/>
-      <c r="N84" s="27">
+      <c r="E84" s="23">
+        <v>1</v>
+      </c>
+      <c r="F84" s="22">
+        <v>1</v>
+      </c>
+      <c r="G84" s="22">
+        <v>0</v>
+      </c>
+      <c r="H84" s="22">
+        <v>0</v>
+      </c>
+      <c r="I84" s="22">
+        <v>0</v>
+      </c>
+      <c r="J84" s="32"/>
+      <c r="K84" s="32"/>
+      <c r="L84" s="32"/>
+      <c r="M84" s="32"/>
+      <c r="N84" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O84" s="27">
+      <c r="O84" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P84" s="28"/>
-      <c r="Q84" s="29"/>
-      <c r="R84" s="29"/>
-      <c r="S84" s="29"/>
-      <c r="T84" s="30"/>
-      <c r="U84" s="30"/>
-      <c r="V84" s="30"/>
-      <c r="W84" s="30"/>
+      <c r="P84" s="32"/>
+      <c r="Q84" s="32"/>
+      <c r="R84" s="32"/>
+      <c r="S84" s="32"/>
+      <c r="T84" s="41"/>
+      <c r="U84" s="41"/>
+      <c r="V84" s="41"/>
+      <c r="W84" s="41"/>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85">
@@ -10721,41 +10801,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E85" s="25">
-        <v>1</v>
-      </c>
-      <c r="F85" s="26">
-        <v>1</v>
-      </c>
-      <c r="G85" s="26">
-        <v>0</v>
-      </c>
-      <c r="H85" s="26">
-        <v>0</v>
-      </c>
-      <c r="I85" s="26">
-        <v>0</v>
-      </c>
-      <c r="J85" s="28"/>
-      <c r="K85" s="29"/>
-      <c r="L85" s="29"/>
-      <c r="M85" s="29"/>
-      <c r="N85" s="27">
+      <c r="E85" s="23">
+        <v>1</v>
+      </c>
+      <c r="F85" s="22">
+        <v>1</v>
+      </c>
+      <c r="G85" s="22">
+        <v>0</v>
+      </c>
+      <c r="H85" s="22">
+        <v>0</v>
+      </c>
+      <c r="I85" s="22">
+        <v>0</v>
+      </c>
+      <c r="J85" s="32"/>
+      <c r="K85" s="32"/>
+      <c r="L85" s="32"/>
+      <c r="M85" s="32"/>
+      <c r="N85" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O85" s="27">
+      <c r="O85" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P85" s="28"/>
-      <c r="Q85" s="29"/>
-      <c r="R85" s="29"/>
-      <c r="S85" s="29"/>
-      <c r="T85" s="30"/>
-      <c r="U85" s="30"/>
-      <c r="V85" s="30"/>
-      <c r="W85" s="30"/>
+      <c r="P85" s="32"/>
+      <c r="Q85" s="32"/>
+      <c r="R85" s="32"/>
+      <c r="S85" s="32"/>
+      <c r="T85" s="41"/>
+      <c r="U85" s="41"/>
+      <c r="V85" s="41"/>
+      <c r="W85" s="41"/>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86">
@@ -10774,41 +10854,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E86" s="25">
-        <v>1</v>
-      </c>
-      <c r="F86" s="26">
-        <v>1</v>
-      </c>
-      <c r="G86" s="26">
-        <v>0</v>
-      </c>
-      <c r="H86" s="26">
-        <v>0</v>
-      </c>
-      <c r="I86" s="26">
-        <v>0</v>
-      </c>
-      <c r="J86" s="28"/>
-      <c r="K86" s="29"/>
-      <c r="L86" s="29"/>
-      <c r="M86" s="29"/>
-      <c r="N86" s="27">
+      <c r="E86" s="23">
+        <v>1</v>
+      </c>
+      <c r="F86" s="22">
+        <v>1</v>
+      </c>
+      <c r="G86" s="22">
+        <v>0</v>
+      </c>
+      <c r="H86" s="22">
+        <v>0</v>
+      </c>
+      <c r="I86" s="22">
+        <v>0</v>
+      </c>
+      <c r="J86" s="32"/>
+      <c r="K86" s="32"/>
+      <c r="L86" s="32"/>
+      <c r="M86" s="32"/>
+      <c r="N86" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O86" s="27">
+      <c r="O86" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P86" s="28"/>
-      <c r="Q86" s="29"/>
-      <c r="R86" s="29"/>
-      <c r="S86" s="29"/>
-      <c r="T86" s="30"/>
-      <c r="U86" s="30"/>
-      <c r="V86" s="30"/>
-      <c r="W86" s="30"/>
+      <c r="P86" s="32"/>
+      <c r="Q86" s="32"/>
+      <c r="R86" s="32"/>
+      <c r="S86" s="32"/>
+      <c r="T86" s="41"/>
+      <c r="U86" s="41"/>
+      <c r="V86" s="41"/>
+      <c r="W86" s="41"/>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87">
@@ -10827,41 +10907,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E87" s="25">
-        <v>1</v>
-      </c>
-      <c r="F87" s="26">
-        <v>1</v>
-      </c>
-      <c r="G87" s="26">
-        <v>0</v>
-      </c>
-      <c r="H87" s="26">
-        <v>0</v>
-      </c>
-      <c r="I87" s="26">
-        <v>0</v>
-      </c>
-      <c r="J87" s="28"/>
-      <c r="K87" s="29"/>
-      <c r="L87" s="29"/>
-      <c r="M87" s="29"/>
-      <c r="N87" s="27">
+      <c r="E87" s="23">
+        <v>1</v>
+      </c>
+      <c r="F87" s="22">
+        <v>1</v>
+      </c>
+      <c r="G87" s="22">
+        <v>0</v>
+      </c>
+      <c r="H87" s="22">
+        <v>0</v>
+      </c>
+      <c r="I87" s="22">
+        <v>0</v>
+      </c>
+      <c r="J87" s="32"/>
+      <c r="K87" s="32"/>
+      <c r="L87" s="32"/>
+      <c r="M87" s="32"/>
+      <c r="N87" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O87" s="27">
+      <c r="O87" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P87" s="28"/>
-      <c r="Q87" s="29"/>
-      <c r="R87" s="29"/>
-      <c r="S87" s="29"/>
-      <c r="T87" s="30"/>
-      <c r="U87" s="30"/>
-      <c r="V87" s="30"/>
-      <c r="W87" s="30"/>
+      <c r="P87" s="32"/>
+      <c r="Q87" s="32"/>
+      <c r="R87" s="32"/>
+      <c r="S87" s="32"/>
+      <c r="T87" s="41"/>
+      <c r="U87" s="41"/>
+      <c r="V87" s="41"/>
+      <c r="W87" s="41"/>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88">
@@ -10880,41 +10960,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E88" s="25">
-        <v>1</v>
-      </c>
-      <c r="F88" s="26">
-        <v>1</v>
-      </c>
-      <c r="G88" s="26">
-        <v>0</v>
-      </c>
-      <c r="H88" s="26">
-        <v>0</v>
-      </c>
-      <c r="I88" s="26">
-        <v>0</v>
-      </c>
-      <c r="J88" s="28"/>
-      <c r="K88" s="29"/>
-      <c r="L88" s="29"/>
-      <c r="M88" s="29"/>
-      <c r="N88" s="27">
+      <c r="E88" s="23">
+        <v>1</v>
+      </c>
+      <c r="F88" s="22">
+        <v>1</v>
+      </c>
+      <c r="G88" s="22">
+        <v>0</v>
+      </c>
+      <c r="H88" s="22">
+        <v>0</v>
+      </c>
+      <c r="I88" s="22">
+        <v>0</v>
+      </c>
+      <c r="J88" s="32"/>
+      <c r="K88" s="32"/>
+      <c r="L88" s="32"/>
+      <c r="M88" s="32"/>
+      <c r="N88" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O88" s="27">
+      <c r="O88" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P88" s="28"/>
-      <c r="Q88" s="29"/>
-      <c r="R88" s="29"/>
-      <c r="S88" s="29"/>
-      <c r="T88" s="30"/>
-      <c r="U88" s="30"/>
-      <c r="V88" s="30"/>
-      <c r="W88" s="30"/>
+      <c r="P88" s="32"/>
+      <c r="Q88" s="32"/>
+      <c r="R88" s="32"/>
+      <c r="S88" s="32"/>
+      <c r="T88" s="41"/>
+      <c r="U88" s="41"/>
+      <c r="V88" s="41"/>
+      <c r="W88" s="41"/>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89">
@@ -10933,41 +11013,41 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E89" s="25">
-        <v>1</v>
-      </c>
-      <c r="F89" s="26">
-        <v>1</v>
-      </c>
-      <c r="G89" s="26">
-        <v>0</v>
-      </c>
-      <c r="H89" s="26">
-        <v>0</v>
-      </c>
-      <c r="I89" s="26">
-        <v>0</v>
-      </c>
-      <c r="J89" s="28"/>
-      <c r="K89" s="29"/>
-      <c r="L89" s="29"/>
-      <c r="M89" s="29"/>
-      <c r="N89" s="27">
+      <c r="E89" s="23">
+        <v>1</v>
+      </c>
+      <c r="F89" s="22">
+        <v>1</v>
+      </c>
+      <c r="G89" s="22">
+        <v>0</v>
+      </c>
+      <c r="H89" s="22">
+        <v>0</v>
+      </c>
+      <c r="I89" s="22">
+        <v>0</v>
+      </c>
+      <c r="J89" s="32"/>
+      <c r="K89" s="32"/>
+      <c r="L89" s="32"/>
+      <c r="M89" s="32"/>
+      <c r="N89" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O89" s="27">
+      <c r="O89" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P89" s="28"/>
-      <c r="Q89" s="29"/>
-      <c r="R89" s="29"/>
-      <c r="S89" s="29"/>
-      <c r="T89" s="30"/>
-      <c r="U89" s="30"/>
-      <c r="V89" s="30"/>
-      <c r="W89" s="30"/>
+      <c r="P89" s="32"/>
+      <c r="Q89" s="32"/>
+      <c r="R89" s="32"/>
+      <c r="S89" s="32"/>
+      <c r="T89" s="41"/>
+      <c r="U89" s="41"/>
+      <c r="V89" s="41"/>
+      <c r="W89" s="41"/>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90">
@@ -10986,41 +11066,41 @@
         <f t="shared" ref="D90:D124" si="6">B90*C90</f>
         <v>0.05</v>
       </c>
-      <c r="E90" s="25">
-        <v>1</v>
-      </c>
-      <c r="F90" s="26">
-        <v>1</v>
-      </c>
-      <c r="G90" s="26">
-        <v>0</v>
-      </c>
-      <c r="H90" s="26">
-        <v>0</v>
-      </c>
-      <c r="I90" s="26">
-        <v>0</v>
-      </c>
-      <c r="J90" s="28"/>
-      <c r="K90" s="29"/>
-      <c r="L90" s="29"/>
-      <c r="M90" s="29"/>
-      <c r="N90" s="27">
+      <c r="E90" s="23">
+        <v>1</v>
+      </c>
+      <c r="F90" s="22">
+        <v>1</v>
+      </c>
+      <c r="G90" s="22">
+        <v>0</v>
+      </c>
+      <c r="H90" s="22">
+        <v>0</v>
+      </c>
+      <c r="I90" s="22">
+        <v>0</v>
+      </c>
+      <c r="J90" s="32"/>
+      <c r="K90" s="32"/>
+      <c r="L90" s="32"/>
+      <c r="M90" s="32"/>
+      <c r="N90" s="19">
         <f t="shared" ref="N90:N124" si="7">J90*F90+K90*G90+L90*H90+M90*I90</f>
         <v>0</v>
       </c>
-      <c r="O90" s="27">
+      <c r="O90" s="19">
         <f t="shared" ref="O90:O124" si="8">E90-N90</f>
         <v>1</v>
       </c>
-      <c r="P90" s="28"/>
-      <c r="Q90" s="29"/>
-      <c r="R90" s="29"/>
-      <c r="S90" s="29"/>
-      <c r="T90" s="30"/>
-      <c r="U90" s="30"/>
-      <c r="V90" s="30"/>
-      <c r="W90" s="30"/>
+      <c r="P90" s="32"/>
+      <c r="Q90" s="32"/>
+      <c r="R90" s="32"/>
+      <c r="S90" s="32"/>
+      <c r="T90" s="41"/>
+      <c r="U90" s="41"/>
+      <c r="V90" s="41"/>
+      <c r="W90" s="41"/>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91">
@@ -11039,41 +11119,41 @@
         <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
-      <c r="E91" s="25">
-        <v>1</v>
-      </c>
-      <c r="F91" s="26">
-        <v>1</v>
-      </c>
-      <c r="G91" s="26">
-        <v>0</v>
-      </c>
-      <c r="H91" s="26">
-        <v>0</v>
-      </c>
-      <c r="I91" s="26">
-        <v>0</v>
-      </c>
-      <c r="J91" s="28"/>
-      <c r="K91" s="29"/>
-      <c r="L91" s="29"/>
-      <c r="M91" s="29"/>
-      <c r="N91" s="27">
+      <c r="E91" s="23">
+        <v>1</v>
+      </c>
+      <c r="F91" s="22">
+        <v>1</v>
+      </c>
+      <c r="G91" s="22">
+        <v>0</v>
+      </c>
+      <c r="H91" s="22">
+        <v>0</v>
+      </c>
+      <c r="I91" s="22">
+        <v>0</v>
+      </c>
+      <c r="J91" s="32"/>
+      <c r="K91" s="32"/>
+      <c r="L91" s="32"/>
+      <c r="M91" s="32"/>
+      <c r="N91" s="19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O91" s="27">
+      <c r="O91" s="19">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P91" s="28"/>
-      <c r="Q91" s="29"/>
-      <c r="R91" s="29"/>
-      <c r="S91" s="29"/>
-      <c r="T91" s="30"/>
-      <c r="U91" s="30"/>
-      <c r="V91" s="30"/>
-      <c r="W91" s="30"/>
+      <c r="P91" s="32"/>
+      <c r="Q91" s="32"/>
+      <c r="R91" s="32"/>
+      <c r="S91" s="32"/>
+      <c r="T91" s="41"/>
+      <c r="U91" s="41"/>
+      <c r="V91" s="41"/>
+      <c r="W91" s="41"/>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92">
@@ -11092,41 +11172,41 @@
         <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
-      <c r="E92" s="25">
-        <v>1</v>
-      </c>
-      <c r="F92" s="26">
-        <v>1</v>
-      </c>
-      <c r="G92" s="26">
-        <v>0</v>
-      </c>
-      <c r="H92" s="26">
-        <v>0</v>
-      </c>
-      <c r="I92" s="26">
-        <v>0</v>
-      </c>
-      <c r="J92" s="28"/>
-      <c r="K92" s="29"/>
-      <c r="L92" s="29"/>
-      <c r="M92" s="29"/>
-      <c r="N92" s="27">
+      <c r="E92" s="23">
+        <v>1</v>
+      </c>
+      <c r="F92" s="22">
+        <v>1</v>
+      </c>
+      <c r="G92" s="22">
+        <v>0</v>
+      </c>
+      <c r="H92" s="22">
+        <v>0</v>
+      </c>
+      <c r="I92" s="22">
+        <v>0</v>
+      </c>
+      <c r="J92" s="32"/>
+      <c r="K92" s="32"/>
+      <c r="L92" s="32"/>
+      <c r="M92" s="32"/>
+      <c r="N92" s="19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O92" s="27">
+      <c r="O92" s="19">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P92" s="28"/>
-      <c r="Q92" s="29"/>
-      <c r="R92" s="29"/>
-      <c r="S92" s="29"/>
-      <c r="T92" s="30"/>
-      <c r="U92" s="30"/>
-      <c r="V92" s="30"/>
-      <c r="W92" s="30"/>
+      <c r="P92" s="32"/>
+      <c r="Q92" s="32"/>
+      <c r="R92" s="32"/>
+      <c r="S92" s="32"/>
+      <c r="T92" s="41"/>
+      <c r="U92" s="41"/>
+      <c r="V92" s="41"/>
+      <c r="W92" s="41"/>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93">
@@ -11145,41 +11225,41 @@
         <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
-      <c r="E93" s="25">
-        <v>1</v>
-      </c>
-      <c r="F93" s="26">
-        <v>1</v>
-      </c>
-      <c r="G93" s="26">
-        <v>0</v>
-      </c>
-      <c r="H93" s="26">
-        <v>0</v>
-      </c>
-      <c r="I93" s="26">
-        <v>0</v>
-      </c>
-      <c r="J93" s="28"/>
-      <c r="K93" s="29"/>
-      <c r="L93" s="29"/>
-      <c r="M93" s="29"/>
-      <c r="N93" s="27">
+      <c r="E93" s="23">
+        <v>1</v>
+      </c>
+      <c r="F93" s="22">
+        <v>1</v>
+      </c>
+      <c r="G93" s="22">
+        <v>0</v>
+      </c>
+      <c r="H93" s="22">
+        <v>0</v>
+      </c>
+      <c r="I93" s="22">
+        <v>0</v>
+      </c>
+      <c r="J93" s="32"/>
+      <c r="K93" s="32"/>
+      <c r="L93" s="32"/>
+      <c r="M93" s="32"/>
+      <c r="N93" s="19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O93" s="27">
+      <c r="O93" s="19">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P93" s="28"/>
-      <c r="Q93" s="29"/>
-      <c r="R93" s="29"/>
-      <c r="S93" s="29"/>
-      <c r="T93" s="30"/>
-      <c r="U93" s="30"/>
-      <c r="V93" s="30"/>
-      <c r="W93" s="30"/>
+      <c r="P93" s="32"/>
+      <c r="Q93" s="32"/>
+      <c r="R93" s="32"/>
+      <c r="S93" s="32"/>
+      <c r="T93" s="41"/>
+      <c r="U93" s="41"/>
+      <c r="V93" s="41"/>
+      <c r="W93" s="41"/>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94">
@@ -11198,41 +11278,41 @@
         <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
-      <c r="E94" s="25">
-        <v>1</v>
-      </c>
-      <c r="F94" s="26">
-        <v>1</v>
-      </c>
-      <c r="G94" s="26">
-        <v>0</v>
-      </c>
-      <c r="H94" s="26">
-        <v>0</v>
-      </c>
-      <c r="I94" s="26">
-        <v>0</v>
-      </c>
-      <c r="J94" s="28"/>
-      <c r="K94" s="29"/>
-      <c r="L94" s="29"/>
-      <c r="M94" s="29"/>
-      <c r="N94" s="27">
+      <c r="E94" s="23">
+        <v>1</v>
+      </c>
+      <c r="F94" s="22">
+        <v>1</v>
+      </c>
+      <c r="G94" s="22">
+        <v>0</v>
+      </c>
+      <c r="H94" s="22">
+        <v>0</v>
+      </c>
+      <c r="I94" s="22">
+        <v>0</v>
+      </c>
+      <c r="J94" s="32"/>
+      <c r="K94" s="32"/>
+      <c r="L94" s="32"/>
+      <c r="M94" s="32"/>
+      <c r="N94" s="19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O94" s="27">
+      <c r="O94" s="19">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P94" s="28"/>
-      <c r="Q94" s="29"/>
-      <c r="R94" s="29"/>
-      <c r="S94" s="29"/>
-      <c r="T94" s="30"/>
-      <c r="U94" s="30"/>
-      <c r="V94" s="30"/>
-      <c r="W94" s="30"/>
+      <c r="P94" s="32"/>
+      <c r="Q94" s="32"/>
+      <c r="R94" s="32"/>
+      <c r="S94" s="32"/>
+      <c r="T94" s="41"/>
+      <c r="U94" s="41"/>
+      <c r="V94" s="41"/>
+      <c r="W94" s="41"/>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95">
@@ -11251,41 +11331,41 @@
         <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
-      <c r="E95" s="25">
-        <v>1</v>
-      </c>
-      <c r="F95" s="26">
-        <v>1</v>
-      </c>
-      <c r="G95" s="26">
-        <v>0</v>
-      </c>
-      <c r="H95" s="26">
-        <v>0</v>
-      </c>
-      <c r="I95" s="26">
-        <v>0</v>
-      </c>
-      <c r="J95" s="28"/>
-      <c r="K95" s="29"/>
-      <c r="L95" s="29"/>
-      <c r="M95" s="29"/>
-      <c r="N95" s="27">
+      <c r="E95" s="23">
+        <v>1</v>
+      </c>
+      <c r="F95" s="22">
+        <v>1</v>
+      </c>
+      <c r="G95" s="22">
+        <v>0</v>
+      </c>
+      <c r="H95" s="22">
+        <v>0</v>
+      </c>
+      <c r="I95" s="22">
+        <v>0</v>
+      </c>
+      <c r="J95" s="32"/>
+      <c r="K95" s="32"/>
+      <c r="L95" s="32"/>
+      <c r="M95" s="32"/>
+      <c r="N95" s="19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O95" s="27">
+      <c r="O95" s="19">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P95" s="28"/>
-      <c r="Q95" s="29"/>
-      <c r="R95" s="29"/>
-      <c r="S95" s="29"/>
-      <c r="T95" s="30"/>
-      <c r="U95" s="30"/>
-      <c r="V95" s="30"/>
-      <c r="W95" s="30"/>
+      <c r="P95" s="32"/>
+      <c r="Q95" s="32"/>
+      <c r="R95" s="32"/>
+      <c r="S95" s="32"/>
+      <c r="T95" s="41"/>
+      <c r="U95" s="41"/>
+      <c r="V95" s="41"/>
+      <c r="W95" s="41"/>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96">
@@ -11304,41 +11384,41 @@
         <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
-      <c r="E96" s="25">
-        <v>1</v>
-      </c>
-      <c r="F96" s="26">
-        <v>1</v>
-      </c>
-      <c r="G96" s="26">
-        <v>0</v>
-      </c>
-      <c r="H96" s="26">
-        <v>0</v>
-      </c>
-      <c r="I96" s="26">
-        <v>0</v>
-      </c>
-      <c r="J96" s="28"/>
-      <c r="K96" s="29"/>
-      <c r="L96" s="29"/>
-      <c r="M96" s="29"/>
-      <c r="N96" s="27">
+      <c r="E96" s="23">
+        <v>1</v>
+      </c>
+      <c r="F96" s="22">
+        <v>1</v>
+      </c>
+      <c r="G96" s="22">
+        <v>0</v>
+      </c>
+      <c r="H96" s="22">
+        <v>0</v>
+      </c>
+      <c r="I96" s="22">
+        <v>0</v>
+      </c>
+      <c r="J96" s="32"/>
+      <c r="K96" s="32"/>
+      <c r="L96" s="32"/>
+      <c r="M96" s="32"/>
+      <c r="N96" s="19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O96" s="27">
+      <c r="O96" s="19">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P96" s="28"/>
-      <c r="Q96" s="29"/>
-      <c r="R96" s="29"/>
-      <c r="S96" s="29"/>
-      <c r="T96" s="30"/>
-      <c r="U96" s="30"/>
-      <c r="V96" s="30"/>
-      <c r="W96" s="30"/>
+      <c r="P96" s="32"/>
+      <c r="Q96" s="32"/>
+      <c r="R96" s="32"/>
+      <c r="S96" s="32"/>
+      <c r="T96" s="41"/>
+      <c r="U96" s="41"/>
+      <c r="V96" s="41"/>
+      <c r="W96" s="41"/>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97">
@@ -11357,41 +11437,41 @@
         <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
-      <c r="E97" s="25">
-        <v>1</v>
-      </c>
-      <c r="F97" s="26">
-        <v>1</v>
-      </c>
-      <c r="G97" s="26">
-        <v>0</v>
-      </c>
-      <c r="H97" s="26">
-        <v>0</v>
-      </c>
-      <c r="I97" s="26">
-        <v>0</v>
-      </c>
-      <c r="J97" s="28"/>
-      <c r="K97" s="29"/>
-      <c r="L97" s="29"/>
-      <c r="M97" s="29"/>
-      <c r="N97" s="27">
+      <c r="E97" s="23">
+        <v>1</v>
+      </c>
+      <c r="F97" s="22">
+        <v>1</v>
+      </c>
+      <c r="G97" s="22">
+        <v>0</v>
+      </c>
+      <c r="H97" s="22">
+        <v>0</v>
+      </c>
+      <c r="I97" s="22">
+        <v>0</v>
+      </c>
+      <c r="J97" s="32"/>
+      <c r="K97" s="32"/>
+      <c r="L97" s="32"/>
+      <c r="M97" s="32"/>
+      <c r="N97" s="19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O97" s="27">
+      <c r="O97" s="19">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P97" s="28"/>
-      <c r="Q97" s="29"/>
-      <c r="R97" s="29"/>
-      <c r="S97" s="29"/>
-      <c r="T97" s="30"/>
-      <c r="U97" s="30"/>
-      <c r="V97" s="30"/>
-      <c r="W97" s="30"/>
+      <c r="P97" s="32"/>
+      <c r="Q97" s="32"/>
+      <c r="R97" s="32"/>
+      <c r="S97" s="32"/>
+      <c r="T97" s="41"/>
+      <c r="U97" s="41"/>
+      <c r="V97" s="41"/>
+      <c r="W97" s="41"/>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98">
@@ -11410,41 +11490,41 @@
         <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
-      <c r="E98" s="25">
-        <v>1</v>
-      </c>
-      <c r="F98" s="26">
-        <v>1</v>
-      </c>
-      <c r="G98" s="26">
-        <v>0</v>
-      </c>
-      <c r="H98" s="26">
-        <v>0</v>
-      </c>
-      <c r="I98" s="26">
-        <v>0</v>
-      </c>
-      <c r="J98" s="28"/>
-      <c r="K98" s="29"/>
-      <c r="L98" s="29"/>
-      <c r="M98" s="29"/>
-      <c r="N98" s="27">
+      <c r="E98" s="23">
+        <v>1</v>
+      </c>
+      <c r="F98" s="22">
+        <v>1</v>
+      </c>
+      <c r="G98" s="22">
+        <v>0</v>
+      </c>
+      <c r="H98" s="22">
+        <v>0</v>
+      </c>
+      <c r="I98" s="22">
+        <v>0</v>
+      </c>
+      <c r="J98" s="32"/>
+      <c r="K98" s="32"/>
+      <c r="L98" s="32"/>
+      <c r="M98" s="32"/>
+      <c r="N98" s="19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O98" s="27">
+      <c r="O98" s="19">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P98" s="28"/>
-      <c r="Q98" s="29"/>
-      <c r="R98" s="29"/>
-      <c r="S98" s="29"/>
-      <c r="T98" s="30"/>
-      <c r="U98" s="30"/>
-      <c r="V98" s="30"/>
-      <c r="W98" s="30"/>
+      <c r="P98" s="32"/>
+      <c r="Q98" s="32"/>
+      <c r="R98" s="32"/>
+      <c r="S98" s="32"/>
+      <c r="T98" s="41"/>
+      <c r="U98" s="41"/>
+      <c r="V98" s="41"/>
+      <c r="W98" s="41"/>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99">
@@ -11463,41 +11543,41 @@
         <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
-      <c r="E99" s="25">
-        <v>1</v>
-      </c>
-      <c r="F99" s="26">
-        <v>1</v>
-      </c>
-      <c r="G99" s="26">
-        <v>0</v>
-      </c>
-      <c r="H99" s="26">
-        <v>0</v>
-      </c>
-      <c r="I99" s="26">
-        <v>0</v>
-      </c>
-      <c r="J99" s="28"/>
-      <c r="K99" s="29"/>
-      <c r="L99" s="29"/>
-      <c r="M99" s="29"/>
-      <c r="N99" s="27">
+      <c r="E99" s="23">
+        <v>1</v>
+      </c>
+      <c r="F99" s="22">
+        <v>1</v>
+      </c>
+      <c r="G99" s="22">
+        <v>0</v>
+      </c>
+      <c r="H99" s="22">
+        <v>0</v>
+      </c>
+      <c r="I99" s="22">
+        <v>0</v>
+      </c>
+      <c r="J99" s="32"/>
+      <c r="K99" s="32"/>
+      <c r="L99" s="32"/>
+      <c r="M99" s="32"/>
+      <c r="N99" s="19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O99" s="27">
+      <c r="O99" s="19">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P99" s="28"/>
-      <c r="Q99" s="29"/>
-      <c r="R99" s="29"/>
-      <c r="S99" s="29"/>
-      <c r="T99" s="30"/>
-      <c r="U99" s="30"/>
-      <c r="V99" s="30"/>
-      <c r="W99" s="30"/>
+      <c r="P99" s="32"/>
+      <c r="Q99" s="32"/>
+      <c r="R99" s="32"/>
+      <c r="S99" s="32"/>
+      <c r="T99" s="41"/>
+      <c r="U99" s="41"/>
+      <c r="V99" s="41"/>
+      <c r="W99" s="41"/>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100">
@@ -11516,41 +11596,41 @@
         <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
-      <c r="E100" s="25">
-        <v>1</v>
-      </c>
-      <c r="F100" s="26">
-        <v>1</v>
-      </c>
-      <c r="G100" s="26">
-        <v>0</v>
-      </c>
-      <c r="H100" s="26">
-        <v>0</v>
-      </c>
-      <c r="I100" s="26">
-        <v>0</v>
-      </c>
-      <c r="J100" s="28"/>
-      <c r="K100" s="29"/>
-      <c r="L100" s="29"/>
-      <c r="M100" s="29"/>
-      <c r="N100" s="27">
+      <c r="E100" s="23">
+        <v>1</v>
+      </c>
+      <c r="F100" s="22">
+        <v>1</v>
+      </c>
+      <c r="G100" s="22">
+        <v>0</v>
+      </c>
+      <c r="H100" s="22">
+        <v>0</v>
+      </c>
+      <c r="I100" s="22">
+        <v>0</v>
+      </c>
+      <c r="J100" s="32"/>
+      <c r="K100" s="32"/>
+      <c r="L100" s="32"/>
+      <c r="M100" s="32"/>
+      <c r="N100" s="19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O100" s="27">
+      <c r="O100" s="19">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P100" s="28"/>
-      <c r="Q100" s="29"/>
-      <c r="R100" s="29"/>
-      <c r="S100" s="29"/>
-      <c r="T100" s="30"/>
-      <c r="U100" s="30"/>
-      <c r="V100" s="30"/>
-      <c r="W100" s="30"/>
+      <c r="P100" s="32"/>
+      <c r="Q100" s="32"/>
+      <c r="R100" s="32"/>
+      <c r="S100" s="32"/>
+      <c r="T100" s="41"/>
+      <c r="U100" s="41"/>
+      <c r="V100" s="41"/>
+      <c r="W100" s="41"/>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101">
@@ -11569,41 +11649,41 @@
         <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
-      <c r="E101" s="25">
-        <v>1</v>
-      </c>
-      <c r="F101" s="26">
-        <v>1</v>
-      </c>
-      <c r="G101" s="26">
-        <v>0</v>
-      </c>
-      <c r="H101" s="26">
-        <v>0</v>
-      </c>
-      <c r="I101" s="26">
-        <v>0</v>
-      </c>
-      <c r="J101" s="28"/>
-      <c r="K101" s="29"/>
-      <c r="L101" s="29"/>
-      <c r="M101" s="29"/>
-      <c r="N101" s="27">
+      <c r="E101" s="23">
+        <v>1</v>
+      </c>
+      <c r="F101" s="22">
+        <v>1</v>
+      </c>
+      <c r="G101" s="22">
+        <v>0</v>
+      </c>
+      <c r="H101" s="22">
+        <v>0</v>
+      </c>
+      <c r="I101" s="22">
+        <v>0</v>
+      </c>
+      <c r="J101" s="32"/>
+      <c r="K101" s="32"/>
+      <c r="L101" s="32"/>
+      <c r="M101" s="32"/>
+      <c r="N101" s="19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O101" s="27">
+      <c r="O101" s="19">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P101" s="28"/>
-      <c r="Q101" s="29"/>
-      <c r="R101" s="29"/>
-      <c r="S101" s="29"/>
-      <c r="T101" s="30"/>
-      <c r="U101" s="30"/>
-      <c r="V101" s="30"/>
-      <c r="W101" s="30"/>
+      <c r="P101" s="32"/>
+      <c r="Q101" s="32"/>
+      <c r="R101" s="32"/>
+      <c r="S101" s="32"/>
+      <c r="T101" s="41"/>
+      <c r="U101" s="41"/>
+      <c r="V101" s="41"/>
+      <c r="W101" s="41"/>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102">
@@ -11622,41 +11702,41 @@
         <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
-      <c r="E102" s="25">
-        <v>1</v>
-      </c>
-      <c r="F102" s="26">
-        <v>1</v>
-      </c>
-      <c r="G102" s="26">
-        <v>0</v>
-      </c>
-      <c r="H102" s="26">
-        <v>0</v>
-      </c>
-      <c r="I102" s="26">
-        <v>0</v>
-      </c>
-      <c r="J102" s="28"/>
-      <c r="K102" s="29"/>
-      <c r="L102" s="29"/>
-      <c r="M102" s="29"/>
-      <c r="N102" s="27">
+      <c r="E102" s="23">
+        <v>1</v>
+      </c>
+      <c r="F102" s="22">
+        <v>1</v>
+      </c>
+      <c r="G102" s="22">
+        <v>0</v>
+      </c>
+      <c r="H102" s="22">
+        <v>0</v>
+      </c>
+      <c r="I102" s="22">
+        <v>0</v>
+      </c>
+      <c r="J102" s="32"/>
+      <c r="K102" s="32"/>
+      <c r="L102" s="32"/>
+      <c r="M102" s="32"/>
+      <c r="N102" s="19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O102" s="27">
+      <c r="O102" s="19">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P102" s="28"/>
-      <c r="Q102" s="29"/>
-      <c r="R102" s="29"/>
-      <c r="S102" s="29"/>
-      <c r="T102" s="30"/>
-      <c r="U102" s="30"/>
-      <c r="V102" s="30"/>
-      <c r="W102" s="30"/>
+      <c r="P102" s="32"/>
+      <c r="Q102" s="32"/>
+      <c r="R102" s="32"/>
+      <c r="S102" s="32"/>
+      <c r="T102" s="41"/>
+      <c r="U102" s="41"/>
+      <c r="V102" s="41"/>
+      <c r="W102" s="41"/>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103">
@@ -11675,41 +11755,41 @@
         <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
-      <c r="E103" s="25">
-        <v>1</v>
-      </c>
-      <c r="F103" s="26">
-        <v>1</v>
-      </c>
-      <c r="G103" s="26">
-        <v>0</v>
-      </c>
-      <c r="H103" s="26">
-        <v>0</v>
-      </c>
-      <c r="I103" s="26">
-        <v>0</v>
-      </c>
-      <c r="J103" s="28"/>
-      <c r="K103" s="29"/>
-      <c r="L103" s="29"/>
-      <c r="M103" s="29"/>
-      <c r="N103" s="27">
+      <c r="E103" s="23">
+        <v>1</v>
+      </c>
+      <c r="F103" s="22">
+        <v>1</v>
+      </c>
+      <c r="G103" s="22">
+        <v>0</v>
+      </c>
+      <c r="H103" s="22">
+        <v>0</v>
+      </c>
+      <c r="I103" s="22">
+        <v>0</v>
+      </c>
+      <c r="J103" s="32"/>
+      <c r="K103" s="32"/>
+      <c r="L103" s="32"/>
+      <c r="M103" s="32"/>
+      <c r="N103" s="19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O103" s="27">
+      <c r="O103" s="19">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P103" s="28"/>
-      <c r="Q103" s="29"/>
-      <c r="R103" s="29"/>
-      <c r="S103" s="29"/>
-      <c r="T103" s="30"/>
-      <c r="U103" s="30"/>
-      <c r="V103" s="30"/>
-      <c r="W103" s="30"/>
+      <c r="P103" s="32"/>
+      <c r="Q103" s="32"/>
+      <c r="R103" s="32"/>
+      <c r="S103" s="32"/>
+      <c r="T103" s="41"/>
+      <c r="U103" s="41"/>
+      <c r="V103" s="41"/>
+      <c r="W103" s="41"/>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104">
@@ -11728,41 +11808,41 @@
         <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
-      <c r="E104" s="25">
-        <v>1</v>
-      </c>
-      <c r="F104" s="26">
-        <v>1</v>
-      </c>
-      <c r="G104" s="26">
-        <v>0</v>
-      </c>
-      <c r="H104" s="26">
-        <v>0</v>
-      </c>
-      <c r="I104" s="26">
-        <v>0</v>
-      </c>
-      <c r="J104" s="28"/>
-      <c r="K104" s="29"/>
-      <c r="L104" s="29"/>
-      <c r="M104" s="29"/>
-      <c r="N104" s="27">
+      <c r="E104" s="23">
+        <v>1</v>
+      </c>
+      <c r="F104" s="22">
+        <v>1</v>
+      </c>
+      <c r="G104" s="22">
+        <v>0</v>
+      </c>
+      <c r="H104" s="22">
+        <v>0</v>
+      </c>
+      <c r="I104" s="22">
+        <v>0</v>
+      </c>
+      <c r="J104" s="32"/>
+      <c r="K104" s="32"/>
+      <c r="L104" s="32"/>
+      <c r="M104" s="32"/>
+      <c r="N104" s="19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O104" s="27">
+      <c r="O104" s="19">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P104" s="28"/>
-      <c r="Q104" s="29"/>
-      <c r="R104" s="29"/>
-      <c r="S104" s="29"/>
-      <c r="T104" s="30"/>
-      <c r="U104" s="30"/>
-      <c r="V104" s="30"/>
-      <c r="W104" s="30"/>
+      <c r="P104" s="32"/>
+      <c r="Q104" s="32"/>
+      <c r="R104" s="32"/>
+      <c r="S104" s="32"/>
+      <c r="T104" s="41"/>
+      <c r="U104" s="41"/>
+      <c r="V104" s="41"/>
+      <c r="W104" s="41"/>
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105">
@@ -11781,41 +11861,41 @@
         <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
-      <c r="E105" s="25">
-        <v>1</v>
-      </c>
-      <c r="F105" s="26">
-        <v>1</v>
-      </c>
-      <c r="G105" s="26">
-        <v>0</v>
-      </c>
-      <c r="H105" s="26">
-        <v>0</v>
-      </c>
-      <c r="I105" s="26">
-        <v>0</v>
-      </c>
-      <c r="J105" s="28"/>
-      <c r="K105" s="29"/>
-      <c r="L105" s="29"/>
-      <c r="M105" s="29"/>
-      <c r="N105" s="27">
+      <c r="E105" s="23">
+        <v>1</v>
+      </c>
+      <c r="F105" s="22">
+        <v>1</v>
+      </c>
+      <c r="G105" s="22">
+        <v>0</v>
+      </c>
+      <c r="H105" s="22">
+        <v>0</v>
+      </c>
+      <c r="I105" s="22">
+        <v>0</v>
+      </c>
+      <c r="J105" s="32"/>
+      <c r="K105" s="32"/>
+      <c r="L105" s="32"/>
+      <c r="M105" s="32"/>
+      <c r="N105" s="19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O105" s="27">
+      <c r="O105" s="19">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P105" s="28"/>
-      <c r="Q105" s="29"/>
-      <c r="R105" s="29"/>
-      <c r="S105" s="29"/>
-      <c r="T105" s="30"/>
-      <c r="U105" s="30"/>
-      <c r="V105" s="30"/>
-      <c r="W105" s="30"/>
+      <c r="P105" s="32"/>
+      <c r="Q105" s="32"/>
+      <c r="R105" s="32"/>
+      <c r="S105" s="32"/>
+      <c r="T105" s="41"/>
+      <c r="U105" s="41"/>
+      <c r="V105" s="41"/>
+      <c r="W105" s="41"/>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106">
@@ -11834,41 +11914,41 @@
         <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
-      <c r="E106" s="25">
-        <v>1</v>
-      </c>
-      <c r="F106" s="26">
-        <v>1</v>
-      </c>
-      <c r="G106" s="26">
-        <v>0</v>
-      </c>
-      <c r="H106" s="26">
-        <v>0</v>
-      </c>
-      <c r="I106" s="26">
-        <v>0</v>
-      </c>
-      <c r="J106" s="28"/>
-      <c r="K106" s="29"/>
-      <c r="L106" s="29"/>
-      <c r="M106" s="29"/>
-      <c r="N106" s="27">
+      <c r="E106" s="23">
+        <v>1</v>
+      </c>
+      <c r="F106" s="22">
+        <v>1</v>
+      </c>
+      <c r="G106" s="22">
+        <v>0</v>
+      </c>
+      <c r="H106" s="22">
+        <v>0</v>
+      </c>
+      <c r="I106" s="22">
+        <v>0</v>
+      </c>
+      <c r="J106" s="32"/>
+      <c r="K106" s="32"/>
+      <c r="L106" s="32"/>
+      <c r="M106" s="32"/>
+      <c r="N106" s="19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O106" s="27">
+      <c r="O106" s="19">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P106" s="28"/>
-      <c r="Q106" s="29"/>
-      <c r="R106" s="29"/>
-      <c r="S106" s="29"/>
-      <c r="T106" s="30"/>
-      <c r="U106" s="30"/>
-      <c r="V106" s="30"/>
-      <c r="W106" s="30"/>
+      <c r="P106" s="32"/>
+      <c r="Q106" s="32"/>
+      <c r="R106" s="32"/>
+      <c r="S106" s="32"/>
+      <c r="T106" s="41"/>
+      <c r="U106" s="41"/>
+      <c r="V106" s="41"/>
+      <c r="W106" s="41"/>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107">
@@ -11887,41 +11967,41 @@
         <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
-      <c r="E107" s="25">
-        <v>1</v>
-      </c>
-      <c r="F107" s="26">
-        <v>1</v>
-      </c>
-      <c r="G107" s="26">
-        <v>0</v>
-      </c>
-      <c r="H107" s="26">
-        <v>0</v>
-      </c>
-      <c r="I107" s="26">
-        <v>0</v>
-      </c>
-      <c r="J107" s="28"/>
-      <c r="K107" s="29"/>
-      <c r="L107" s="29"/>
-      <c r="M107" s="29"/>
-      <c r="N107" s="27">
+      <c r="E107" s="23">
+        <v>1</v>
+      </c>
+      <c r="F107" s="22">
+        <v>1</v>
+      </c>
+      <c r="G107" s="22">
+        <v>0</v>
+      </c>
+      <c r="H107" s="22">
+        <v>0</v>
+      </c>
+      <c r="I107" s="22">
+        <v>0</v>
+      </c>
+      <c r="J107" s="32"/>
+      <c r="K107" s="32"/>
+      <c r="L107" s="32"/>
+      <c r="M107" s="32"/>
+      <c r="N107" s="19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O107" s="27">
+      <c r="O107" s="19">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P107" s="28"/>
-      <c r="Q107" s="29"/>
-      <c r="R107" s="29"/>
-      <c r="S107" s="29"/>
-      <c r="T107" s="30"/>
-      <c r="U107" s="30"/>
-      <c r="V107" s="30"/>
-      <c r="W107" s="30"/>
+      <c r="P107" s="32"/>
+      <c r="Q107" s="32"/>
+      <c r="R107" s="32"/>
+      <c r="S107" s="32"/>
+      <c r="T107" s="41"/>
+      <c r="U107" s="41"/>
+      <c r="V107" s="41"/>
+      <c r="W107" s="41"/>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108">
@@ -11940,41 +12020,41 @@
         <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
-      <c r="E108" s="25">
-        <v>1</v>
-      </c>
-      <c r="F108" s="26">
-        <v>1</v>
-      </c>
-      <c r="G108" s="26">
-        <v>0</v>
-      </c>
-      <c r="H108" s="26">
-        <v>0</v>
-      </c>
-      <c r="I108" s="26">
-        <v>0</v>
-      </c>
-      <c r="J108" s="28"/>
-      <c r="K108" s="29"/>
-      <c r="L108" s="29"/>
-      <c r="M108" s="29"/>
-      <c r="N108" s="27">
+      <c r="E108" s="23">
+        <v>1</v>
+      </c>
+      <c r="F108" s="22">
+        <v>1</v>
+      </c>
+      <c r="G108" s="22">
+        <v>0</v>
+      </c>
+      <c r="H108" s="22">
+        <v>0</v>
+      </c>
+      <c r="I108" s="22">
+        <v>0</v>
+      </c>
+      <c r="J108" s="32"/>
+      <c r="K108" s="32"/>
+      <c r="L108" s="32"/>
+      <c r="M108" s="32"/>
+      <c r="N108" s="19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O108" s="27">
+      <c r="O108" s="19">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P108" s="28"/>
-      <c r="Q108" s="29"/>
-      <c r="R108" s="29"/>
-      <c r="S108" s="29"/>
-      <c r="T108" s="30"/>
-      <c r="U108" s="30"/>
-      <c r="V108" s="30"/>
-      <c r="W108" s="30"/>
+      <c r="P108" s="32"/>
+      <c r="Q108" s="32"/>
+      <c r="R108" s="32"/>
+      <c r="S108" s="32"/>
+      <c r="T108" s="41"/>
+      <c r="U108" s="41"/>
+      <c r="V108" s="41"/>
+      <c r="W108" s="41"/>
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109">
@@ -11993,41 +12073,41 @@
         <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
-      <c r="E109" s="25">
-        <v>1</v>
-      </c>
-      <c r="F109" s="26">
-        <v>1</v>
-      </c>
-      <c r="G109" s="26">
-        <v>0</v>
-      </c>
-      <c r="H109" s="26">
-        <v>0</v>
-      </c>
-      <c r="I109" s="26">
-        <v>0</v>
-      </c>
-      <c r="J109" s="28"/>
-      <c r="K109" s="29"/>
-      <c r="L109" s="29"/>
-      <c r="M109" s="29"/>
-      <c r="N109" s="27">
+      <c r="E109" s="23">
+        <v>1</v>
+      </c>
+      <c r="F109" s="22">
+        <v>1</v>
+      </c>
+      <c r="G109" s="22">
+        <v>0</v>
+      </c>
+      <c r="H109" s="22">
+        <v>0</v>
+      </c>
+      <c r="I109" s="22">
+        <v>0</v>
+      </c>
+      <c r="J109" s="32"/>
+      <c r="K109" s="32"/>
+      <c r="L109" s="32"/>
+      <c r="M109" s="32"/>
+      <c r="N109" s="19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O109" s="27">
+      <c r="O109" s="19">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P109" s="28"/>
-      <c r="Q109" s="29"/>
-      <c r="R109" s="29"/>
-      <c r="S109" s="29"/>
-      <c r="T109" s="30"/>
-      <c r="U109" s="30"/>
-      <c r="V109" s="30"/>
-      <c r="W109" s="30"/>
+      <c r="P109" s="32"/>
+      <c r="Q109" s="32"/>
+      <c r="R109" s="32"/>
+      <c r="S109" s="32"/>
+      <c r="T109" s="41"/>
+      <c r="U109" s="41"/>
+      <c r="V109" s="41"/>
+      <c r="W109" s="41"/>
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110">
@@ -12046,41 +12126,41 @@
         <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
-      <c r="E110" s="25">
-        <v>1</v>
-      </c>
-      <c r="F110" s="26">
-        <v>1</v>
-      </c>
-      <c r="G110" s="26">
-        <v>0</v>
-      </c>
-      <c r="H110" s="26">
-        <v>0</v>
-      </c>
-      <c r="I110" s="26">
-        <v>0</v>
-      </c>
-      <c r="J110" s="28"/>
-      <c r="K110" s="29"/>
-      <c r="L110" s="29"/>
-      <c r="M110" s="29"/>
-      <c r="N110" s="27">
+      <c r="E110" s="23">
+        <v>1</v>
+      </c>
+      <c r="F110" s="22">
+        <v>1</v>
+      </c>
+      <c r="G110" s="22">
+        <v>0</v>
+      </c>
+      <c r="H110" s="22">
+        <v>0</v>
+      </c>
+      <c r="I110" s="22">
+        <v>0</v>
+      </c>
+      <c r="J110" s="32"/>
+      <c r="K110" s="32"/>
+      <c r="L110" s="32"/>
+      <c r="M110" s="32"/>
+      <c r="N110" s="19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O110" s="27">
+      <c r="O110" s="19">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P110" s="28"/>
-      <c r="Q110" s="29"/>
-      <c r="R110" s="29"/>
-      <c r="S110" s="29"/>
-      <c r="T110" s="30"/>
-      <c r="U110" s="30"/>
-      <c r="V110" s="30"/>
-      <c r="W110" s="30"/>
+      <c r="P110" s="32"/>
+      <c r="Q110" s="32"/>
+      <c r="R110" s="32"/>
+      <c r="S110" s="32"/>
+      <c r="T110" s="41"/>
+      <c r="U110" s="41"/>
+      <c r="V110" s="41"/>
+      <c r="W110" s="41"/>
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111">
@@ -12099,41 +12179,41 @@
         <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
-      <c r="E111" s="25">
-        <v>1</v>
-      </c>
-      <c r="F111" s="26">
-        <v>1</v>
-      </c>
-      <c r="G111" s="26">
-        <v>0</v>
-      </c>
-      <c r="H111" s="26">
-        <v>0</v>
-      </c>
-      <c r="I111" s="26">
-        <v>0</v>
-      </c>
-      <c r="J111" s="28"/>
-      <c r="K111" s="29"/>
-      <c r="L111" s="29"/>
-      <c r="M111" s="29"/>
-      <c r="N111" s="27">
+      <c r="E111" s="23">
+        <v>1</v>
+      </c>
+      <c r="F111" s="22">
+        <v>1</v>
+      </c>
+      <c r="G111" s="22">
+        <v>0</v>
+      </c>
+      <c r="H111" s="22">
+        <v>0</v>
+      </c>
+      <c r="I111" s="22">
+        <v>0</v>
+      </c>
+      <c r="J111" s="32"/>
+      <c r="K111" s="32"/>
+      <c r="L111" s="32"/>
+      <c r="M111" s="32"/>
+      <c r="N111" s="19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O111" s="27">
+      <c r="O111" s="19">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P111" s="28"/>
-      <c r="Q111" s="29"/>
-      <c r="R111" s="29"/>
-      <c r="S111" s="29"/>
-      <c r="T111" s="30"/>
-      <c r="U111" s="30"/>
-      <c r="V111" s="30"/>
-      <c r="W111" s="30"/>
+      <c r="P111" s="32"/>
+      <c r="Q111" s="32"/>
+      <c r="R111" s="32"/>
+      <c r="S111" s="32"/>
+      <c r="T111" s="41"/>
+      <c r="U111" s="41"/>
+      <c r="V111" s="41"/>
+      <c r="W111" s="41"/>
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112">
@@ -12152,41 +12232,41 @@
         <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
-      <c r="E112" s="25">
-        <v>1</v>
-      </c>
-      <c r="F112" s="26">
-        <v>1</v>
-      </c>
-      <c r="G112" s="26">
-        <v>0</v>
-      </c>
-      <c r="H112" s="26">
-        <v>0</v>
-      </c>
-      <c r="I112" s="26">
-        <v>0</v>
-      </c>
-      <c r="J112" s="28"/>
-      <c r="K112" s="29"/>
-      <c r="L112" s="29"/>
-      <c r="M112" s="29"/>
-      <c r="N112" s="27">
+      <c r="E112" s="23">
+        <v>1</v>
+      </c>
+      <c r="F112" s="22">
+        <v>1</v>
+      </c>
+      <c r="G112" s="22">
+        <v>0</v>
+      </c>
+      <c r="H112" s="22">
+        <v>0</v>
+      </c>
+      <c r="I112" s="22">
+        <v>0</v>
+      </c>
+      <c r="J112" s="32"/>
+      <c r="K112" s="32"/>
+      <c r="L112" s="32"/>
+      <c r="M112" s="32"/>
+      <c r="N112" s="19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O112" s="27">
+      <c r="O112" s="19">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P112" s="28"/>
-      <c r="Q112" s="29"/>
-      <c r="R112" s="29"/>
-      <c r="S112" s="29"/>
-      <c r="T112" s="30"/>
-      <c r="U112" s="30"/>
-      <c r="V112" s="30"/>
-      <c r="W112" s="30"/>
+      <c r="P112" s="32"/>
+      <c r="Q112" s="32"/>
+      <c r="R112" s="32"/>
+      <c r="S112" s="32"/>
+      <c r="T112" s="41"/>
+      <c r="U112" s="41"/>
+      <c r="V112" s="41"/>
+      <c r="W112" s="41"/>
     </row>
     <row r="113" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A113">
@@ -12205,41 +12285,41 @@
         <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
-      <c r="E113" s="25">
-        <v>1</v>
-      </c>
-      <c r="F113" s="26">
-        <v>1</v>
-      </c>
-      <c r="G113" s="26">
-        <v>0</v>
-      </c>
-      <c r="H113" s="26">
-        <v>0</v>
-      </c>
-      <c r="I113" s="26">
-        <v>0</v>
-      </c>
-      <c r="J113" s="28"/>
-      <c r="K113" s="29"/>
-      <c r="L113" s="29"/>
-      <c r="M113" s="29"/>
-      <c r="N113" s="27">
+      <c r="E113" s="23">
+        <v>1</v>
+      </c>
+      <c r="F113" s="22">
+        <v>1</v>
+      </c>
+      <c r="G113" s="22">
+        <v>0</v>
+      </c>
+      <c r="H113" s="22">
+        <v>0</v>
+      </c>
+      <c r="I113" s="22">
+        <v>0</v>
+      </c>
+      <c r="J113" s="32"/>
+      <c r="K113" s="32"/>
+      <c r="L113" s="32"/>
+      <c r="M113" s="32"/>
+      <c r="N113" s="19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O113" s="27">
+      <c r="O113" s="19">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P113" s="28"/>
-      <c r="Q113" s="29"/>
-      <c r="R113" s="29"/>
-      <c r="S113" s="29"/>
-      <c r="T113" s="30"/>
-      <c r="U113" s="30"/>
-      <c r="V113" s="30"/>
-      <c r="W113" s="30"/>
+      <c r="P113" s="32"/>
+      <c r="Q113" s="32"/>
+      <c r="R113" s="32"/>
+      <c r="S113" s="32"/>
+      <c r="T113" s="41"/>
+      <c r="U113" s="41"/>
+      <c r="V113" s="41"/>
+      <c r="W113" s="41"/>
     </row>
     <row r="114" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A114">
@@ -12258,41 +12338,41 @@
         <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
-      <c r="E114" s="25">
-        <v>1</v>
-      </c>
-      <c r="F114" s="26">
-        <v>1</v>
-      </c>
-      <c r="G114" s="26">
-        <v>0</v>
-      </c>
-      <c r="H114" s="26">
-        <v>0</v>
-      </c>
-      <c r="I114" s="26">
-        <v>0</v>
-      </c>
-      <c r="J114" s="28"/>
-      <c r="K114" s="29"/>
-      <c r="L114" s="29"/>
-      <c r="M114" s="29"/>
-      <c r="N114" s="27">
+      <c r="E114" s="23">
+        <v>1</v>
+      </c>
+      <c r="F114" s="22">
+        <v>1</v>
+      </c>
+      <c r="G114" s="22">
+        <v>0</v>
+      </c>
+      <c r="H114" s="22">
+        <v>0</v>
+      </c>
+      <c r="I114" s="22">
+        <v>0</v>
+      </c>
+      <c r="J114" s="32"/>
+      <c r="K114" s="32"/>
+      <c r="L114" s="32"/>
+      <c r="M114" s="32"/>
+      <c r="N114" s="19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O114" s="27">
+      <c r="O114" s="19">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P114" s="28"/>
-      <c r="Q114" s="29"/>
-      <c r="R114" s="29"/>
-      <c r="S114" s="29"/>
-      <c r="T114" s="30"/>
-      <c r="U114" s="30"/>
-      <c r="V114" s="30"/>
-      <c r="W114" s="30"/>
+      <c r="P114" s="32"/>
+      <c r="Q114" s="32"/>
+      <c r="R114" s="32"/>
+      <c r="S114" s="32"/>
+      <c r="T114" s="41"/>
+      <c r="U114" s="41"/>
+      <c r="V114" s="41"/>
+      <c r="W114" s="41"/>
     </row>
     <row r="115" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A115">
@@ -12311,41 +12391,41 @@
         <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
-      <c r="E115" s="25">
-        <v>1</v>
-      </c>
-      <c r="F115" s="26">
-        <v>1</v>
-      </c>
-      <c r="G115" s="26">
-        <v>0</v>
-      </c>
-      <c r="H115" s="26">
-        <v>0</v>
-      </c>
-      <c r="I115" s="26">
-        <v>0</v>
-      </c>
-      <c r="J115" s="28"/>
-      <c r="K115" s="29"/>
-      <c r="L115" s="29"/>
-      <c r="M115" s="29"/>
-      <c r="N115" s="27">
+      <c r="E115" s="23">
+        <v>1</v>
+      </c>
+      <c r="F115" s="22">
+        <v>1</v>
+      </c>
+      <c r="G115" s="22">
+        <v>0</v>
+      </c>
+      <c r="H115" s="22">
+        <v>0</v>
+      </c>
+      <c r="I115" s="22">
+        <v>0</v>
+      </c>
+      <c r="J115" s="32"/>
+      <c r="K115" s="32"/>
+      <c r="L115" s="32"/>
+      <c r="M115" s="32"/>
+      <c r="N115" s="19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O115" s="27">
+      <c r="O115" s="19">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P115" s="28"/>
-      <c r="Q115" s="29"/>
-      <c r="R115" s="29"/>
-      <c r="S115" s="29"/>
-      <c r="T115" s="30"/>
-      <c r="U115" s="30"/>
-      <c r="V115" s="30"/>
-      <c r="W115" s="30"/>
+      <c r="P115" s="32"/>
+      <c r="Q115" s="32"/>
+      <c r="R115" s="32"/>
+      <c r="S115" s="32"/>
+      <c r="T115" s="41"/>
+      <c r="U115" s="41"/>
+      <c r="V115" s="41"/>
+      <c r="W115" s="41"/>
     </row>
     <row r="116" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A116">
@@ -12364,41 +12444,41 @@
         <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
-      <c r="E116" s="25">
-        <v>1</v>
-      </c>
-      <c r="F116" s="26">
-        <v>1</v>
-      </c>
-      <c r="G116" s="26">
-        <v>0</v>
-      </c>
-      <c r="H116" s="26">
-        <v>0</v>
-      </c>
-      <c r="I116" s="26">
-        <v>0</v>
-      </c>
-      <c r="J116" s="28"/>
-      <c r="K116" s="29"/>
-      <c r="L116" s="29"/>
-      <c r="M116" s="29"/>
-      <c r="N116" s="27">
+      <c r="E116" s="23">
+        <v>1</v>
+      </c>
+      <c r="F116" s="22">
+        <v>1</v>
+      </c>
+      <c r="G116" s="22">
+        <v>0</v>
+      </c>
+      <c r="H116" s="22">
+        <v>0</v>
+      </c>
+      <c r="I116" s="22">
+        <v>0</v>
+      </c>
+      <c r="J116" s="32"/>
+      <c r="K116" s="32"/>
+      <c r="L116" s="32"/>
+      <c r="M116" s="32"/>
+      <c r="N116" s="19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O116" s="27">
+      <c r="O116" s="19">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P116" s="28"/>
-      <c r="Q116" s="29"/>
-      <c r="R116" s="29"/>
-      <c r="S116" s="29"/>
-      <c r="T116" s="30"/>
-      <c r="U116" s="30"/>
-      <c r="V116" s="30"/>
-      <c r="W116" s="30"/>
+      <c r="P116" s="32"/>
+      <c r="Q116" s="32"/>
+      <c r="R116" s="32"/>
+      <c r="S116" s="32"/>
+      <c r="T116" s="41"/>
+      <c r="U116" s="41"/>
+      <c r="V116" s="41"/>
+      <c r="W116" s="41"/>
     </row>
     <row r="117" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A117">
@@ -12417,41 +12497,41 @@
         <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
-      <c r="E117" s="25">
-        <v>1</v>
-      </c>
-      <c r="F117" s="26">
-        <v>1</v>
-      </c>
-      <c r="G117" s="26">
-        <v>0</v>
-      </c>
-      <c r="H117" s="26">
-        <v>0</v>
-      </c>
-      <c r="I117" s="26">
-        <v>0</v>
-      </c>
-      <c r="J117" s="28"/>
-      <c r="K117" s="29"/>
-      <c r="L117" s="29"/>
-      <c r="M117" s="29"/>
-      <c r="N117" s="27">
+      <c r="E117" s="23">
+        <v>1</v>
+      </c>
+      <c r="F117" s="22">
+        <v>1</v>
+      </c>
+      <c r="G117" s="22">
+        <v>0</v>
+      </c>
+      <c r="H117" s="22">
+        <v>0</v>
+      </c>
+      <c r="I117" s="22">
+        <v>0</v>
+      </c>
+      <c r="J117" s="32"/>
+      <c r="K117" s="32"/>
+      <c r="L117" s="32"/>
+      <c r="M117" s="32"/>
+      <c r="N117" s="19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O117" s="27">
+      <c r="O117" s="19">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P117" s="28"/>
-      <c r="Q117" s="29"/>
-      <c r="R117" s="29"/>
-      <c r="S117" s="29"/>
-      <c r="T117" s="30"/>
-      <c r="U117" s="30"/>
-      <c r="V117" s="30"/>
-      <c r="W117" s="30"/>
+      <c r="P117" s="32"/>
+      <c r="Q117" s="32"/>
+      <c r="R117" s="32"/>
+      <c r="S117" s="32"/>
+      <c r="T117" s="41"/>
+      <c r="U117" s="41"/>
+      <c r="V117" s="41"/>
+      <c r="W117" s="41"/>
     </row>
     <row r="118" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A118">
@@ -12470,41 +12550,41 @@
         <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
-      <c r="E118" s="25">
-        <v>1</v>
-      </c>
-      <c r="F118" s="26">
-        <v>1</v>
-      </c>
-      <c r="G118" s="26">
-        <v>0</v>
-      </c>
-      <c r="H118" s="26">
-        <v>0</v>
-      </c>
-      <c r="I118" s="26">
-        <v>0</v>
-      </c>
-      <c r="J118" s="28"/>
-      <c r="K118" s="29"/>
-      <c r="L118" s="29"/>
-      <c r="M118" s="29"/>
-      <c r="N118" s="27">
+      <c r="E118" s="23">
+        <v>1</v>
+      </c>
+      <c r="F118" s="22">
+        <v>1</v>
+      </c>
+      <c r="G118" s="22">
+        <v>0</v>
+      </c>
+      <c r="H118" s="22">
+        <v>0</v>
+      </c>
+      <c r="I118" s="22">
+        <v>0</v>
+      </c>
+      <c r="J118" s="32"/>
+      <c r="K118" s="32"/>
+      <c r="L118" s="32"/>
+      <c r="M118" s="32"/>
+      <c r="N118" s="19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O118" s="27">
+      <c r="O118" s="19">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P118" s="28"/>
-      <c r="Q118" s="29"/>
-      <c r="R118" s="29"/>
-      <c r="S118" s="29"/>
-      <c r="T118" s="30"/>
-      <c r="U118" s="30"/>
-      <c r="V118" s="30"/>
-      <c r="W118" s="30"/>
+      <c r="P118" s="32"/>
+      <c r="Q118" s="32"/>
+      <c r="R118" s="32"/>
+      <c r="S118" s="32"/>
+      <c r="T118" s="41"/>
+      <c r="U118" s="41"/>
+      <c r="V118" s="41"/>
+      <c r="W118" s="41"/>
     </row>
     <row r="119" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A119">
@@ -12523,41 +12603,41 @@
         <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
-      <c r="E119" s="25">
-        <v>1</v>
-      </c>
-      <c r="F119" s="26">
-        <v>1</v>
-      </c>
-      <c r="G119" s="26">
-        <v>0</v>
-      </c>
-      <c r="H119" s="26">
-        <v>0</v>
-      </c>
-      <c r="I119" s="26">
-        <v>0</v>
-      </c>
-      <c r="J119" s="28"/>
-      <c r="K119" s="29"/>
-      <c r="L119" s="29"/>
-      <c r="M119" s="29"/>
-      <c r="N119" s="27">
+      <c r="E119" s="23">
+        <v>1</v>
+      </c>
+      <c r="F119" s="22">
+        <v>1</v>
+      </c>
+      <c r="G119" s="22">
+        <v>0</v>
+      </c>
+      <c r="H119" s="22">
+        <v>0</v>
+      </c>
+      <c r="I119" s="22">
+        <v>0</v>
+      </c>
+      <c r="J119" s="32"/>
+      <c r="K119" s="32"/>
+      <c r="L119" s="32"/>
+      <c r="M119" s="32"/>
+      <c r="N119" s="19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O119" s="27">
+      <c r="O119" s="19">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P119" s="28"/>
-      <c r="Q119" s="29"/>
-      <c r="R119" s="29"/>
-      <c r="S119" s="29"/>
-      <c r="T119" s="30"/>
-      <c r="U119" s="30"/>
-      <c r="V119" s="30"/>
-      <c r="W119" s="30"/>
+      <c r="P119" s="32"/>
+      <c r="Q119" s="32"/>
+      <c r="R119" s="32"/>
+      <c r="S119" s="32"/>
+      <c r="T119" s="41"/>
+      <c r="U119" s="41"/>
+      <c r="V119" s="41"/>
+      <c r="W119" s="41"/>
     </row>
     <row r="120" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A120">
@@ -12576,41 +12656,41 @@
         <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
-      <c r="E120" s="25">
-        <v>1</v>
-      </c>
-      <c r="F120" s="26">
-        <v>1</v>
-      </c>
-      <c r="G120" s="26">
-        <v>0</v>
-      </c>
-      <c r="H120" s="26">
-        <v>0</v>
-      </c>
-      <c r="I120" s="26">
-        <v>0</v>
-      </c>
-      <c r="J120" s="28"/>
-      <c r="K120" s="29"/>
-      <c r="L120" s="29"/>
-      <c r="M120" s="29"/>
-      <c r="N120" s="27">
+      <c r="E120" s="23">
+        <v>1</v>
+      </c>
+      <c r="F120" s="22">
+        <v>1</v>
+      </c>
+      <c r="G120" s="22">
+        <v>0</v>
+      </c>
+      <c r="H120" s="22">
+        <v>0</v>
+      </c>
+      <c r="I120" s="22">
+        <v>0</v>
+      </c>
+      <c r="J120" s="32"/>
+      <c r="K120" s="32"/>
+      <c r="L120" s="32"/>
+      <c r="M120" s="32"/>
+      <c r="N120" s="19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O120" s="27">
+      <c r="O120" s="19">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P120" s="28"/>
-      <c r="Q120" s="29"/>
-      <c r="R120" s="29"/>
-      <c r="S120" s="29"/>
-      <c r="T120" s="30"/>
-      <c r="U120" s="30"/>
-      <c r="V120" s="30"/>
-      <c r="W120" s="30"/>
+      <c r="P120" s="32"/>
+      <c r="Q120" s="32"/>
+      <c r="R120" s="32"/>
+      <c r="S120" s="32"/>
+      <c r="T120" s="41"/>
+      <c r="U120" s="41"/>
+      <c r="V120" s="41"/>
+      <c r="W120" s="41"/>
     </row>
     <row r="121" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A121">
@@ -12629,41 +12709,41 @@
         <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
-      <c r="E121" s="25">
-        <v>1</v>
-      </c>
-      <c r="F121" s="26">
-        <v>1</v>
-      </c>
-      <c r="G121" s="26">
-        <v>0</v>
-      </c>
-      <c r="H121" s="26">
-        <v>0</v>
-      </c>
-      <c r="I121" s="26">
-        <v>0</v>
-      </c>
-      <c r="J121" s="28"/>
-      <c r="K121" s="29"/>
-      <c r="L121" s="29"/>
-      <c r="M121" s="29"/>
-      <c r="N121" s="27">
+      <c r="E121" s="23">
+        <v>1</v>
+      </c>
+      <c r="F121" s="22">
+        <v>1</v>
+      </c>
+      <c r="G121" s="22">
+        <v>0</v>
+      </c>
+      <c r="H121" s="22">
+        <v>0</v>
+      </c>
+      <c r="I121" s="22">
+        <v>0</v>
+      </c>
+      <c r="J121" s="32"/>
+      <c r="K121" s="32"/>
+      <c r="L121" s="32"/>
+      <c r="M121" s="32"/>
+      <c r="N121" s="19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O121" s="27">
+      <c r="O121" s="19">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P121" s="28"/>
-      <c r="Q121" s="29"/>
-      <c r="R121" s="29"/>
-      <c r="S121" s="29"/>
-      <c r="T121" s="30"/>
-      <c r="U121" s="30"/>
-      <c r="V121" s="30"/>
-      <c r="W121" s="30"/>
+      <c r="P121" s="32"/>
+      <c r="Q121" s="32"/>
+      <c r="R121" s="32"/>
+      <c r="S121" s="32"/>
+      <c r="T121" s="41"/>
+      <c r="U121" s="41"/>
+      <c r="V121" s="41"/>
+      <c r="W121" s="41"/>
     </row>
     <row r="122" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A122">
@@ -12682,41 +12762,41 @@
         <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
-      <c r="E122" s="25">
-        <v>1</v>
-      </c>
-      <c r="F122" s="26">
-        <v>1</v>
-      </c>
-      <c r="G122" s="26">
-        <v>0</v>
-      </c>
-      <c r="H122" s="26">
-        <v>0</v>
-      </c>
-      <c r="I122" s="26">
-        <v>0</v>
-      </c>
-      <c r="J122" s="28"/>
-      <c r="K122" s="29"/>
-      <c r="L122" s="29"/>
-      <c r="M122" s="29"/>
-      <c r="N122" s="27">
+      <c r="E122" s="23">
+        <v>1</v>
+      </c>
+      <c r="F122" s="22">
+        <v>1</v>
+      </c>
+      <c r="G122" s="22">
+        <v>0</v>
+      </c>
+      <c r="H122" s="22">
+        <v>0</v>
+      </c>
+      <c r="I122" s="22">
+        <v>0</v>
+      </c>
+      <c r="J122" s="32"/>
+      <c r="K122" s="32"/>
+      <c r="L122" s="32"/>
+      <c r="M122" s="32"/>
+      <c r="N122" s="19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O122" s="27">
+      <c r="O122" s="19">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P122" s="28"/>
-      <c r="Q122" s="29"/>
-      <c r="R122" s="29"/>
-      <c r="S122" s="29"/>
-      <c r="T122" s="30"/>
-      <c r="U122" s="30"/>
-      <c r="V122" s="30"/>
-      <c r="W122" s="30"/>
+      <c r="P122" s="32"/>
+      <c r="Q122" s="32"/>
+      <c r="R122" s="32"/>
+      <c r="S122" s="32"/>
+      <c r="T122" s="41"/>
+      <c r="U122" s="41"/>
+      <c r="V122" s="41"/>
+      <c r="W122" s="41"/>
     </row>
     <row r="123" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A123">
@@ -12735,41 +12815,41 @@
         <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
-      <c r="E123" s="25">
-        <v>1</v>
-      </c>
-      <c r="F123" s="26">
-        <v>1</v>
-      </c>
-      <c r="G123" s="26">
-        <v>0</v>
-      </c>
-      <c r="H123" s="26">
-        <v>0</v>
-      </c>
-      <c r="I123" s="26">
-        <v>0</v>
-      </c>
-      <c r="J123" s="28"/>
-      <c r="K123" s="29"/>
-      <c r="L123" s="29"/>
-      <c r="M123" s="29"/>
-      <c r="N123" s="27">
+      <c r="E123" s="23">
+        <v>1</v>
+      </c>
+      <c r="F123" s="22">
+        <v>1</v>
+      </c>
+      <c r="G123" s="22">
+        <v>0</v>
+      </c>
+      <c r="H123" s="22">
+        <v>0</v>
+      </c>
+      <c r="I123" s="22">
+        <v>0</v>
+      </c>
+      <c r="J123" s="32"/>
+      <c r="K123" s="32"/>
+      <c r="L123" s="32"/>
+      <c r="M123" s="32"/>
+      <c r="N123" s="19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O123" s="27">
+      <c r="O123" s="19">
         <f>E123-N123</f>
         <v>1</v>
       </c>
-      <c r="P123" s="28"/>
-      <c r="Q123" s="29"/>
-      <c r="R123" s="29"/>
-      <c r="S123" s="29"/>
-      <c r="T123" s="30"/>
-      <c r="U123" s="30"/>
-      <c r="V123" s="30"/>
-      <c r="W123" s="30"/>
+      <c r="P123" s="32"/>
+      <c r="Q123" s="32"/>
+      <c r="R123" s="32"/>
+      <c r="S123" s="32"/>
+      <c r="T123" s="41"/>
+      <c r="U123" s="41"/>
+      <c r="V123" s="41"/>
+      <c r="W123" s="41"/>
     </row>
     <row r="124" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A124">
@@ -12788,49 +12868,49 @@
         <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
-      <c r="E124" s="25">
-        <v>1</v>
-      </c>
-      <c r="F124" s="26">
-        <v>1</v>
-      </c>
-      <c r="G124" s="26">
-        <v>0</v>
-      </c>
-      <c r="H124" s="26">
-        <v>0</v>
-      </c>
-      <c r="I124" s="26">
-        <v>0</v>
-      </c>
-      <c r="J124" s="28"/>
-      <c r="K124" s="29"/>
-      <c r="L124" s="29"/>
-      <c r="M124" s="29"/>
-      <c r="N124" s="27">
+      <c r="E124" s="23">
+        <v>1</v>
+      </c>
+      <c r="F124" s="22">
+        <v>1</v>
+      </c>
+      <c r="G124" s="22">
+        <v>0</v>
+      </c>
+      <c r="H124" s="22">
+        <v>0</v>
+      </c>
+      <c r="I124" s="22">
+        <v>0</v>
+      </c>
+      <c r="J124" s="32"/>
+      <c r="K124" s="32"/>
+      <c r="L124" s="32"/>
+      <c r="M124" s="32"/>
+      <c r="N124" s="19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O124" s="27">
+      <c r="O124" s="19">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P124" s="28"/>
-      <c r="Q124" s="29"/>
-      <c r="R124" s="29"/>
-      <c r="S124" s="29"/>
-      <c r="T124" s="30"/>
-      <c r="U124" s="30"/>
-      <c r="V124" s="30"/>
-      <c r="W124" s="30"/>
+      <c r="P124" s="32"/>
+      <c r="Q124" s="32"/>
+      <c r="R124" s="32"/>
+      <c r="S124" s="32"/>
+      <c r="T124" s="41"/>
+      <c r="U124" s="41"/>
+      <c r="V124" s="41"/>
+      <c r="W124" s="41"/>
     </row>
     <row r="125" spans="1:256" x14ac:dyDescent="0.25">
       <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
+      <c r="E125" s="21"/>
+      <c r="F125" s="21"/>
+      <c r="G125" s="21"/>
+      <c r="H125" s="21"/>
+      <c r="I125" s="21"/>
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
@@ -13081,11 +13161,11 @@
     </row>
     <row r="126" spans="1:256" x14ac:dyDescent="0.25">
       <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
-      <c r="I126" s="1"/>
+      <c r="E126" s="21"/>
+      <c r="F126" s="21"/>
+      <c r="G126" s="21"/>
+      <c r="H126" s="21"/>
+      <c r="I126" s="21"/>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
@@ -13334,6 +13414,20 @@
       <c r="IU126" s="1"/>
       <c r="IV126" s="1"/>
     </row>
+    <row r="127" spans="1:256" x14ac:dyDescent="0.25">
+      <c r="E127" s="21"/>
+      <c r="F127" s="21"/>
+      <c r="G127" s="21"/>
+      <c r="H127" s="21"/>
+      <c r="I127" s="21"/>
+    </row>
+    <row r="128" spans="1:256" x14ac:dyDescent="0.25">
+      <c r="E128" s="21"/>
+      <c r="F128" s="21"/>
+      <c r="G128" s="21"/>
+      <c r="H128" s="21"/>
+      <c r="I128" s="21"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
